--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ36"/>
+  <dimension ref="A1:AQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0171</v>
+        <v>-0.1425</v>
       </c>
       <c r="E2">
-        <v>-0.08839999999999999</v>
+        <v>-0.189</v>
       </c>
       <c r="G2">
-        <v>-0.3299910979322493</v>
+        <v>-0.4015854015081725</v>
       </c>
       <c r="H2">
-        <v>-0.3496643508618532</v>
+        <v>-0.4150232514521814</v>
       </c>
       <c r="I2">
-        <v>-0.3615086933841705</v>
+        <v>-0.2728079526133485</v>
       </c>
       <c r="J2">
-        <v>-0.3598403103056497</v>
+        <v>-0.2662890963398603</v>
       </c>
       <c r="K2">
-        <v>-399.295</v>
+        <v>-402.381</v>
       </c>
       <c r="L2">
-        <v>-1.264964819408409</v>
+        <v>-1.10983897748774</v>
       </c>
       <c r="M2">
-        <v>41.389</v>
+        <v>186.796</v>
       </c>
       <c r="N2">
-        <v>0.009444523550040071</v>
+        <v>0.05793363541346831</v>
       </c>
       <c r="O2">
-        <v>-0.1036551922763871</v>
+        <v>-0.4642266906240604</v>
       </c>
       <c r="P2">
-        <v>31.3</v>
+        <v>53.209</v>
       </c>
       <c r="Q2">
-        <v>0.007142322528117475</v>
+        <v>0.01650244548446024</v>
       </c>
       <c r="R2">
-        <v>-0.07838815913046744</v>
+        <v>-0.1322353689662285</v>
       </c>
       <c r="S2">
-        <v>10.089</v>
+        <v>133.587</v>
       </c>
       <c r="T2">
-        <v>0.2437604194351156</v>
+        <v>0.7151491466626695</v>
       </c>
       <c r="U2">
-        <v>715.871</v>
+        <v>402.291</v>
       </c>
       <c r="V2">
-        <v>0.1633540437867727</v>
+        <v>0.1247680899169125</v>
       </c>
       <c r="W2">
-        <v>-0.2193306417648169</v>
+        <v>-0.236686737862607</v>
       </c>
       <c r="X2">
-        <v>0.05261023656250911</v>
+        <v>0.04028069219737695</v>
       </c>
       <c r="Y2">
-        <v>-0.2719408783273261</v>
+        <v>-0.2769674300599839</v>
       </c>
       <c r="Z2">
-        <v>0.09334074468939557</v>
+        <v>0.1223408811566037</v>
       </c>
       <c r="AA2">
-        <v>-0.2402047681474246</v>
+        <v>-0.1384490922634098</v>
       </c>
       <c r="AB2">
-        <v>0.05127849840180915</v>
+        <v>0.03927673619776557</v>
       </c>
       <c r="AC2">
-        <v>-0.2920254400005093</v>
+        <v>-0.1776825523571805</v>
       </c>
       <c r="AD2">
-        <v>514.646</v>
+        <v>594.712</v>
       </c>
       <c r="AE2">
-        <v>42.41874813783554</v>
+        <v>0.6635284179521092</v>
       </c>
       <c r="AF2">
-        <v>557.0647481378355</v>
+        <v>595.3755284179521</v>
       </c>
       <c r="AG2">
-        <v>-158.8062518621645</v>
+        <v>193.0845284179521</v>
       </c>
       <c r="AH2">
-        <v>0.1127800068840143</v>
+        <v>0.1558702997899794</v>
       </c>
       <c r="AI2">
-        <v>0.1452479421829965</v>
+        <v>0.1729654978627909</v>
       </c>
       <c r="AJ2">
-        <v>-0.0376004342660678</v>
+        <v>0.05650050844651483</v>
       </c>
       <c r="AK2">
-        <v>-0.05090928300703203</v>
+        <v>0.06351731087830827</v>
       </c>
       <c r="AL2">
-        <v>33.722</v>
+        <v>54.317</v>
       </c>
       <c r="AM2">
-        <v>17.71</v>
+        <v>46.422</v>
       </c>
       <c r="AN2">
-        <v>-7.428171412900711</v>
+        <v>-4.628577210145774</v>
       </c>
       <c r="AO2">
-        <v>-3.786459877824565</v>
+        <v>-1.827807132205387</v>
       </c>
       <c r="AP2">
-        <v>2.292138791076663</v>
+        <v>-1.502755363717357</v>
       </c>
       <c r="AQ2">
-        <v>-7.209881422924901</v>
+        <v>-2.138662703028736</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Golden Rock Global Plc (LSE:GCG)</t>
+          <t>True Partner Capital Holding Limited (SEHK:8657)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,8 +724,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="G3">
+        <v>-0.1074074074074074</v>
+      </c>
+      <c r="H3">
+        <v>-0.1074074074074074</v>
+      </c>
+      <c r="I3">
+        <v>0.2638594333057234</v>
+      </c>
+      <c r="J3">
+        <v>0.1319297166528617</v>
+      </c>
       <c r="K3">
-        <v>-0.356</v>
+        <v>-0.284</v>
+      </c>
+      <c r="L3">
+        <v>-0.02103703703703703</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,64 +764,67 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.698</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.6069565217391304</v>
-      </c>
-      <c r="W3">
-        <v>-0.3563563563563563</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.05045015326463245</v>
-      </c>
-      <c r="Y3">
-        <v>-0.4068065096209887</v>
+        <v>0.0386878317174154</v>
       </c>
       <c r="Z3">
-        <v>-0</v>
+        <v>931.7894337447842</v>
       </c>
       <c r="AA3">
-        <v>18.95238095238093</v>
+        <v>122.9307159740798</v>
       </c>
       <c r="AB3">
-        <v>0.05045015326463245</v>
+        <v>0.03860386165362104</v>
       </c>
       <c r="AC3">
-        <v>18.9019307991163</v>
+        <v>122.8921121124262</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.01448825186366905</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.394488251863669</v>
       </c>
       <c r="AG3">
-        <v>-0.698</v>
+        <v>0.394488251863669</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.009132837726041319</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.03035812139867005</v>
       </c>
       <c r="AJ3">
-        <v>-1.54424778761062</v>
+        <v>0.009132837726041319</v>
       </c>
       <c r="AK3">
-        <v>7.586956521739133</v>
+        <v>0.03035812139867005</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="AM3">
-        <v>-0.001</v>
+        <v>0.017</v>
+      </c>
+      <c r="AN3">
+        <v>0.1034013605442177</v>
+      </c>
+      <c r="AO3">
+        <v>208.8235294117647</v>
+      </c>
+      <c r="AP3">
+        <v>0.1073437420037195</v>
       </c>
       <c r="AQ3">
-        <v>398</v>
+        <v>208.8235294117647</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Value Partners Group Limited (SEHK:806)</t>
+          <t>Golden Rock Global Plc (LSE:GCG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -825,122 +843,86 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.068</v>
-      </c>
-      <c r="E4">
-        <v>-0.113</v>
-      </c>
-      <c r="G4">
-        <v>0.263454011741683</v>
-      </c>
-      <c r="H4">
-        <v>0.2548923679060666</v>
-      </c>
-      <c r="I4">
-        <v>0.2104337006366357</v>
-      </c>
-      <c r="J4">
-        <v>0.1787465842298661</v>
-      </c>
       <c r="K4">
-        <v>36.6</v>
-      </c>
-      <c r="L4">
-        <v>0.1790606653620352</v>
+        <v>-0.358</v>
       </c>
       <c r="M4">
-        <v>14.3</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01250874737578726</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.3907103825136612</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.3</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01250874737578726</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.3907103825136612</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>271</v>
+        <v>0.036</v>
       </c>
       <c r="V4">
-        <v>0.2370538838348495</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="W4">
-        <v>0.07298105682951146</v>
+        <v>-0.5907590759075908</v>
       </c>
       <c r="X4">
-        <v>0.05104444996234096</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y4">
-        <v>0.0219366068671705</v>
+        <v>-0.6292224601620406</v>
       </c>
       <c r="Z4">
-        <v>0.6923257165527489</v>
+        <v>-0</v>
       </c>
       <c r="AA4">
-        <v>0.1237508570082983</v>
+        <v>3.902173913043479</v>
       </c>
       <c r="AB4">
-        <v>0.05062083395355022</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC4">
-        <v>0.07313002305474811</v>
+        <v>3.86371052878903</v>
       </c>
       <c r="AD4">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>8.636757949358341</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>26.03675794935834</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-244.9632420506417</v>
+        <v>-0.036</v>
       </c>
       <c r="AH4">
-        <v>0.02226816576911452</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.04689307322793113</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.2727156731036968</v>
+        <v>-0.02941176470588235</v>
       </c>
       <c r="AK4">
-        <v>-0.8618281597986917</v>
+        <v>-0.182741116751269</v>
       </c>
       <c r="AL4">
-        <v>0.395</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.395</v>
-      </c>
-      <c r="AN4">
-        <v>0.3787548976926426</v>
-      </c>
-      <c r="AO4">
-        <v>102.2784810126582</v>
-      </c>
-      <c r="AP4">
-        <v>-5.332242970192461</v>
-      </c>
-      <c r="AQ4">
-        <v>102.2784810126582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +933,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Central Wealth Group Holdings Limited (SEHK:139)</t>
+          <t>China Development Bank International Investment Limited (SEHK:1062)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -959,23 +941,29 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.305</v>
+      </c>
+      <c r="E5">
+        <v>0.33</v>
+      </c>
       <c r="G5">
-        <v>0.01957219251336898</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01957219251336898</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2572852408993941</v>
+        <v>0.9571150097465888</v>
       </c>
       <c r="J5">
-        <v>0.2572852408993941</v>
+        <v>0.9571150097465888</v>
       </c>
       <c r="K5">
-        <v>-5.31</v>
+        <v>46.5</v>
       </c>
       <c r="L5">
-        <v>-0.05679144385026737</v>
+        <v>0.9064327485380117</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -984,7 +972,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -993,79 +981,73 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>27.4</v>
+        <v>10.1</v>
       </c>
       <c r="V5">
-        <v>0.2842323651452282</v>
+        <v>0.1498516320474777</v>
       </c>
       <c r="W5">
-        <v>-0.0171456247981918</v>
+        <v>0.2228078581696215</v>
       </c>
       <c r="X5">
-        <v>0.08416895198378826</v>
+        <v>0.06754780237200889</v>
       </c>
       <c r="Y5">
-        <v>-0.1013145767819801</v>
+        <v>0.1552600557976126</v>
       </c>
       <c r="Z5">
-        <v>0.2148342967580365</v>
+        <v>0.1874657409099214</v>
       </c>
       <c r="AA5">
-        <v>0.05527369379484334</v>
+        <v>0.1794262744381509</v>
       </c>
       <c r="AB5">
-        <v>0.06065513516358836</v>
+        <v>0.04193608120821935</v>
       </c>
       <c r="AC5">
-        <v>-0.005381441368745021</v>
+        <v>0.1374901932299316</v>
       </c>
       <c r="AD5">
-        <v>121.9</v>
+        <v>80.5</v>
       </c>
       <c r="AE5">
-        <v>2.669149879533238</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>124.5691498795332</v>
+        <v>80.5</v>
       </c>
       <c r="AG5">
-        <v>97.16914987953325</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.5637400060028523</v>
+        <v>0.5442866801893171</v>
       </c>
       <c r="AI5">
-        <v>0.4038301720874887</v>
+        <v>0.2389433066191748</v>
       </c>
       <c r="AJ5">
-        <v>0.5019867573939647</v>
+        <v>0.5108853410740203</v>
       </c>
       <c r="AK5">
-        <v>0.3457126117227028</v>
+        <v>0.2154222766217871</v>
       </c>
       <c r="AL5">
-        <v>7.41</v>
+        <v>2.44</v>
       </c>
       <c r="AM5">
-        <v>7.011</v>
-      </c>
-      <c r="AN5">
-        <v>4.91730536506656</v>
+        <v>2.426</v>
       </c>
       <c r="AO5">
-        <v>3.036437246963563</v>
-      </c>
-      <c r="AP5">
-        <v>3.919691402966247</v>
+        <v>20.12295081967213</v>
       </c>
       <c r="AQ5">
-        <v>3.209242618741977</v>
+        <v>20.23907666941467</v>
       </c>
     </row>
     <row r="6">
@@ -1076,7 +1058,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>China Innovation Investment Limited (SEHK:1217)</t>
+          <t>Value Partners Group Limited (SEHK:806)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1085,115 +1067,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.88</v>
+        <v>-0.07190000000000001</v>
+      </c>
+      <c r="E6">
+        <v>-0.189</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.2548507462686567</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.244136460554371</v>
       </c>
       <c r="I6">
-        <v>0.7168834217343572</v>
+        <v>0.204066596198535</v>
       </c>
       <c r="J6">
-        <v>0.7168834217343572</v>
+        <v>0.1829285150869305</v>
       </c>
       <c r="K6">
-        <v>3.86</v>
+        <v>50.1</v>
       </c>
       <c r="L6">
-        <v>1.363957597173145</v>
+        <v>0.2670575692963753</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>53.087</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.05424790517065196</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>1.059620758483034</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>52.7</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.05385244226445943</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>1.05189620758483</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3870000000000005</v>
+      </c>
+      <c r="T6">
+        <v>0.007289920319475586</v>
       </c>
       <c r="U6">
-        <v>6.22</v>
+        <v>233.6</v>
       </c>
       <c r="V6">
-        <v>0.3157360406091371</v>
+        <v>0.2387083588800327</v>
       </c>
       <c r="W6">
-        <v>0.04472769409038239</v>
+        <v>0.09467120181405896</v>
       </c>
       <c r="X6">
-        <v>0.05083573280694394</v>
+        <v>0.03880679591434178</v>
       </c>
       <c r="Y6">
-        <v>-0.006108038716561549</v>
+        <v>0.05586440589971717</v>
       </c>
       <c r="Z6">
-        <v>0.04263904045290125</v>
+        <v>0.6804484493302687</v>
       </c>
       <c r="AA6">
-        <v>0.03056722121934553</v>
+        <v>0.1244734244291905</v>
       </c>
       <c r="AB6">
-        <v>0.05056176371008628</v>
+        <v>0.03855210967029583</v>
       </c>
       <c r="AC6">
-        <v>-0.01999454249074075</v>
+        <v>0.08592131475889467</v>
       </c>
       <c r="AD6">
-        <v>0.12</v>
+        <v>13.7</v>
       </c>
       <c r="AE6">
-        <v>0.1710995824588455</v>
+        <v>0.1005327657742027</v>
       </c>
       <c r="AF6">
-        <v>0.2910995824588455</v>
+        <v>13.8005327657742</v>
       </c>
       <c r="AG6">
-        <v>-5.928900417541154</v>
+        <v>-219.7994672342258</v>
       </c>
       <c r="AH6">
-        <v>0.01456145927632066</v>
+        <v>0.01390621257257164</v>
       </c>
       <c r="AI6">
-        <v>0.003199209414927912</v>
+        <v>0.02540128701056113</v>
       </c>
       <c r="AJ6">
-        <v>-0.4305320996366321</v>
+        <v>-0.2896669911828769</v>
       </c>
       <c r="AK6">
-        <v>-0.06994011457612359</v>
+        <v>-0.7097161418203295</v>
       </c>
       <c r="AL6">
-        <v>0.004</v>
+        <v>0.571</v>
       </c>
       <c r="AM6">
-        <v>0.004</v>
+        <v>0.571</v>
       </c>
       <c r="AN6">
-        <v>0.975609756097561</v>
+        <v>0.3390837314060837</v>
       </c>
       <c r="AO6">
-        <v>485</v>
+        <v>66.90017513134852</v>
       </c>
       <c r="AP6">
-        <v>-48.20244241903377</v>
+        <v>-5.440176898602227</v>
       </c>
       <c r="AQ6">
-        <v>485</v>
+        <v>66.90017513134852</v>
       </c>
     </row>
     <row r="7">
@@ -1204,7 +1192,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>China Development Bank International Investment Limited (SEHK:1062)</t>
+          <t>Central Wealth Group Holdings Limited (SEHK:139)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1212,29 +1200,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D7">
-        <v>0.0074</v>
-      </c>
-      <c r="E7">
-        <v>-0.08839999999999999</v>
-      </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.4635761589403974</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4635761589403974</v>
       </c>
       <c r="I7">
-        <v>0.7512899896800826</v>
+        <v>0.3653421633554084</v>
       </c>
       <c r="J7">
-        <v>0.7465329133262131</v>
+        <v>0.3064969752119037</v>
       </c>
       <c r="K7">
-        <v>4.55</v>
+        <v>22</v>
       </c>
       <c r="L7">
-        <v>0.4695562435500516</v>
+        <v>0.2428256070640177</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1258,67 +1240,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>4.95</v>
+        <v>17.1</v>
       </c>
       <c r="V7">
-        <v>0.09840954274353877</v>
+        <v>0.4150485436893204</v>
       </c>
       <c r="W7">
-        <v>0.02234774066797643</v>
+        <v>0.1196302338227297</v>
       </c>
       <c r="X7">
-        <v>0.08671182464674318</v>
+        <v>0.1044250135053032</v>
       </c>
       <c r="Y7">
-        <v>-0.06436408397876675</v>
+        <v>0.01520522031742649</v>
       </c>
       <c r="Z7">
-        <v>0.0367881548974943</v>
+        <v>0.3254310344827586</v>
       </c>
       <c r="AA7">
-        <v>0.02746356845152242</v>
+        <v>0.09974362770904624</v>
       </c>
       <c r="AB7">
-        <v>0.05490746131294195</v>
+        <v>0.04714837072220832</v>
       </c>
       <c r="AC7">
-        <v>-0.02744389286141954</v>
+        <v>0.05259525698683792</v>
       </c>
       <c r="AD7">
-        <v>69.90000000000001</v>
+        <v>111.6</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>69.90000000000001</v>
+        <v>111.6</v>
       </c>
       <c r="AG7">
-        <v>64.95</v>
+        <v>94.5</v>
       </c>
       <c r="AH7">
-        <v>0.5815307820299501</v>
+        <v>0.7303664921465968</v>
       </c>
       <c r="AI7">
-        <v>0.250897343862168</v>
+        <v>0.3961661341853035</v>
       </c>
       <c r="AJ7">
-        <v>0.5635574837310195</v>
+        <v>0.6963890935887989</v>
       </c>
       <c r="AK7">
-        <v>0.2373469760643158</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="AL7">
-        <v>2.93</v>
+        <v>7.41</v>
       </c>
       <c r="AM7">
-        <v>2.919</v>
+        <v>4.77</v>
+      </c>
+      <c r="AN7">
+        <v>3.272727272727272</v>
       </c>
       <c r="AO7">
-        <v>2.484641638225256</v>
+        <v>4.46693657219973</v>
+      </c>
+      <c r="AP7">
+        <v>2.771260997067448</v>
       </c>
       <c r="AQ7">
-        <v>2.49400479616307</v>
+        <v>6.939203354297695</v>
       </c>
     </row>
     <row r="8">
@@ -1329,7 +1317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>China Minsheng Financial Holding Corporation Limited (SEHK:245)</t>
+          <t>OCI International Holdings Limited (SEHK:329)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1338,25 +1326,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0171</v>
+        <v>-0.151</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.7158415841584159</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7158415841584159</v>
       </c>
       <c r="I8">
-        <v>0.295808167447113</v>
+        <v>0.4732673267326733</v>
       </c>
       <c r="J8">
-        <v>0.295808167447113</v>
+        <v>0.4732673267326733</v>
       </c>
       <c r="K8">
-        <v>-17.4</v>
+        <v>-5.84</v>
       </c>
       <c r="L8">
-        <v>-1.990846681922197</v>
+        <v>-0.5782178217821782</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1380,67 +1368,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>305.9</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="V8">
-        <v>0.6863361005160421</v>
+        <v>0.03067182553640521</v>
       </c>
       <c r="W8">
-        <v>-0.02413314840499306</v>
+        <v>-0.1819314641744548</v>
       </c>
       <c r="X8">
-        <v>0.05325000137721654</v>
+        <v>0.04373966927911349</v>
       </c>
       <c r="Y8">
-        <v>-0.0773831497822096</v>
+        <v>-0.2256711334535683</v>
       </c>
       <c r="Z8">
-        <v>0.01359669682730467</v>
+        <v>0.08859649122807019</v>
       </c>
       <c r="AA8">
-        <v>0.004022013971818969</v>
+        <v>0.04192982456140352</v>
       </c>
       <c r="AB8">
-        <v>0.05150035184468715</v>
+        <v>0.04120262918808737</v>
       </c>
       <c r="AC8">
-        <v>-0.04747833787286818</v>
+        <v>0.0007271953733161488</v>
       </c>
       <c r="AD8">
-        <v>44.2</v>
+        <v>61.6</v>
       </c>
       <c r="AE8">
-        <v>3.623183082561163</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>47.82318308256117</v>
+        <v>61.6</v>
       </c>
       <c r="AG8">
-        <v>-258.0768169174388</v>
+        <v>52.88</v>
       </c>
       <c r="AH8">
-        <v>0.09690159393091946</v>
+        <v>0.1780861520670714</v>
       </c>
       <c r="AI8">
-        <v>0.06699583904804324</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="AJ8">
-        <v>-1.375506015180839</v>
+        <v>0.1568301797259624</v>
       </c>
       <c r="AK8">
-        <v>-0.6326603331716149</v>
+        <v>0.6670030272452069</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>4.376</v>
       </c>
       <c r="AN8">
-        <v>13.35347432024169</v>
+        <v>12.62295081967213</v>
+      </c>
+      <c r="AO8">
+        <v>1.076576576576576</v>
       </c>
       <c r="AP8">
-        <v>-77.96882686327456</v>
+        <v>10.83606557377049</v>
+      </c>
+      <c r="AQ8">
+        <v>1.092321755027422</v>
       </c>
     </row>
     <row r="9">
@@ -1451,7 +1445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chinawe.com Inc. (OTCPK:CHWE)</t>
+          <t>China Innovation Investment Limited (SEHK:1217)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1459,8 +1453,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.297</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.6829971181556196</v>
+      </c>
+      <c r="J9">
+        <v>0.6829971181556196</v>
+      </c>
       <c r="K9">
-        <v>-0.028</v>
+        <v>-2.42</v>
+      </c>
+      <c r="L9">
+        <v>-0.6974063400576368</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1484,61 +1496,67 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>9.49</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.5751515151515152</v>
       </c>
       <c r="W9">
-        <v>0.06588235294117648</v>
+        <v>-0.02668136714443219</v>
       </c>
       <c r="X9">
-        <v>0.075292954899287</v>
+        <v>0.03897402627535607</v>
       </c>
       <c r="Y9">
-        <v>-0.009410601958110526</v>
+        <v>-0.06565539341978827</v>
       </c>
       <c r="Z9">
-        <v>-0</v>
+        <v>0.04101654846335697</v>
       </c>
       <c r="AA9">
-        <v>-0</v>
+        <v>0.02801418439716312</v>
       </c>
       <c r="AB9">
-        <v>0.05573594985171403</v>
+        <v>0.03859442865911085</v>
       </c>
       <c r="AC9">
-        <v>-0.05573594985171403</v>
+        <v>-0.01058024426194773</v>
       </c>
       <c r="AD9">
-        <v>0.417</v>
+        <v>0.346</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.417</v>
+        <v>0.346</v>
       </c>
       <c r="AG9">
-        <v>0.417</v>
+        <v>-9.144</v>
       </c>
       <c r="AH9">
-        <v>0.487719298245614</v>
+        <v>0.02053900035616764</v>
       </c>
       <c r="AI9">
-        <v>-11.58333333333332</v>
+        <v>0.003920857602610883</v>
       </c>
       <c r="AJ9">
-        <v>0.487719298245614</v>
+        <v>-1.243066884176183</v>
       </c>
       <c r="AK9">
-        <v>-11.58333333333332</v>
+        <v>-0.1161054395855554</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.003</v>
+      </c>
+      <c r="AO9">
+        <v>790</v>
+      </c>
+      <c r="AQ9">
+        <v>790</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1567,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OP Financial Limited (SEHK:1140)</t>
+          <t>SHK Hong Kong Industries Limited (SEHK:666)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1558,121 +1576,112 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.398</v>
+        <v>-0.32</v>
       </c>
       <c r="E10">
-        <v>0.782</v>
+        <v>-0.404</v>
       </c>
       <c r="G10">
-        <v>0.2010909090909091</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.2010909090909091</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.1521070509721333</v>
+        <v>0.4028776978417267</v>
       </c>
       <c r="J10">
-        <v>-0.1521070509721333</v>
+        <v>0.4028776978417267</v>
       </c>
       <c r="K10">
-        <v>71.09999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="L10">
-        <v>2.585454545454545</v>
+        <v>0.3435251798561151</v>
       </c>
       <c r="M10">
-        <v>26.96</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.04825487739395024</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.379184247538678</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>17</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.03042777877214963</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>0.2390998593530239</v>
+        <v>-0</v>
       </c>
       <c r="S10">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="T10">
-        <v>0.3694362017804155</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>6.21</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="V10">
-        <v>0.01111508859853231</v>
+        <v>0.07507002801120448</v>
       </c>
       <c r="W10">
-        <v>0.1028050896471949</v>
+        <v>0.0137410071942446</v>
       </c>
       <c r="X10">
-        <v>0.05382758563750796</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y10">
-        <v>0.04897750400968694</v>
+        <v>-0.02472237706020522</v>
       </c>
       <c r="Z10">
-        <v>0.04003408169746313</v>
+        <v>0.05045372050816697</v>
       </c>
       <c r="AA10">
-        <v>-0.006089466105378571</v>
+        <v>0.02032667876588022</v>
       </c>
       <c r="AB10">
-        <v>0.05169217078423022</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC10">
-        <v>-0.05778163688960879</v>
+        <v>-0.01813670548856961</v>
       </c>
       <c r="AD10">
-        <v>59.6</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>12.71471950866832</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>72.31471950866833</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>66.10471950866834</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.1146006856464066</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.08974112504765487</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.1058006084855625</v>
+        <v>-0.08116293155663233</v>
       </c>
       <c r="AK10">
-        <v>0.08267174754707249</v>
+        <v>-0.06001791579575992</v>
       </c>
       <c r="AL10">
-        <v>1.1</v>
+        <v>0.043</v>
       </c>
       <c r="AM10">
-        <v>1.1</v>
-      </c>
-      <c r="AN10">
-        <v>-48.06451612903225</v>
+        <v>0.043</v>
       </c>
       <c r="AO10">
-        <v>-5.427272727272727</v>
-      </c>
-      <c r="AP10">
-        <v>-53.31025766828091</v>
+        <v>52.09302325581396</v>
       </c>
       <c r="AQ10">
-        <v>-5.427272727272727</v>
+        <v>52.09302325581396</v>
       </c>
     </row>
     <row r="11">
@@ -1683,7 +1692,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UBA Investments Limited (SEHK:768)</t>
+          <t>AGBA Acquisition Limited (NasdaqCM:AGBA)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1691,26 +1700,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D11">
-        <v>-0.526</v>
-      </c>
-      <c r="G11">
-        <v>0.04149377593360996</v>
-      </c>
-      <c r="H11">
-        <v>0.04149377593360996</v>
-      </c>
-      <c r="I11">
-        <v>-0.520746887966805</v>
-      </c>
-      <c r="J11">
-        <v>-0.520746887966805</v>
-      </c>
       <c r="K11">
-        <v>-5.17</v>
-      </c>
-      <c r="L11">
-        <v>-10.72614107883818</v>
+        <v>0.177</v>
       </c>
       <c r="M11">
         <v>-0</v>
@@ -1719,7 +1710,7 @@
         <v>-0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1728,79 +1719,70 @@
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2.47</v>
+        <v>0.304</v>
       </c>
       <c r="V11">
-        <v>0.2855491329479769</v>
+        <v>0.01420560747663551</v>
       </c>
       <c r="W11">
-        <v>-0.2651282051282051</v>
+        <v>0.0354</v>
       </c>
       <c r="X11">
-        <v>0.05045015326463245</v>
+        <v>0.03980612642762316</v>
       </c>
       <c r="Y11">
-        <v>-0.3155783583928375</v>
+        <v>-0.004406126427623155</v>
       </c>
       <c r="Z11">
-        <v>0.02544341216216216</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-0.0132495777027027</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.05045015326463245</v>
+        <v>0.03879680855549442</v>
       </c>
       <c r="AC11">
-        <v>-0.06369973096733515</v>
+        <v>-0.03879680855549442</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AG11">
-        <v>-2.47</v>
+        <v>0.8759999999999999</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.05225863596102746</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.1909385113268608</v>
       </c>
       <c r="AJ11">
-        <v>-0.3996763754045308</v>
+        <v>0.03932483390195726</v>
       </c>
       <c r="AK11">
-        <v>-0.1798980335032775</v>
+        <v>0.1490810074880871</v>
       </c>
       <c r="AL11">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.021</v>
-      </c>
-      <c r="AN11">
-        <v>-0</v>
-      </c>
-      <c r="AO11">
-        <v>-6.435897435897436</v>
-      </c>
-      <c r="AP11">
-        <v>9.840637450199203</v>
+        <v>-0.848</v>
       </c>
       <c r="AQ11">
-        <v>-11.95238095238095</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -1811,7 +1793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Global Mastermind Capital Limited (SEHK:905)</t>
+          <t>China Vered Financial Holding Corporation Limited (SEHK:245)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1820,34 +1802,34 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.246</v>
+        <v>-0.217</v>
       </c>
       <c r="G12">
-        <v>-4.62</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>-4.62</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>-3.865962032791859</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-3.865962032791859</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-12.6</v>
+        <v>-51.3</v>
       </c>
       <c r="L12">
-        <v>-25.2</v>
+        <v>-7.6</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>23</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.07338864071474155</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-0.4483430799220273</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1859,76 +1841,67 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>3.82</v>
+        <v>40.7</v>
       </c>
       <c r="V12">
-        <v>0.4716049382716049</v>
+        <v>0.129865985960434</v>
       </c>
       <c r="W12">
-        <v>-0.2093023255813953</v>
+        <v>-0.07351676698194325</v>
       </c>
       <c r="X12">
-        <v>0.06170887261608525</v>
+        <v>0.0394501842172013</v>
       </c>
       <c r="Y12">
-        <v>-0.2710111981974806</v>
+        <v>-0.1129669511991445</v>
       </c>
       <c r="Z12">
-        <v>0.008625909061575293</v>
+        <v>0.01555048724860045</v>
       </c>
       <c r="AA12">
-        <v>-0.03334743693036533</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.05371684905916464</v>
+        <v>0.03892649112900051</v>
       </c>
       <c r="AC12">
-        <v>-0.08706428598952998</v>
+        <v>-0.03892649112900051</v>
       </c>
       <c r="AD12">
-        <v>2.3</v>
+        <v>12.7</v>
       </c>
       <c r="AE12">
-        <v>1.194905081979647</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>3.494905081979647</v>
+        <v>12.7</v>
       </c>
       <c r="AG12">
-        <v>-0.3250949180203526</v>
+        <v>-28</v>
       </c>
       <c r="AH12">
-        <v>0.3014173084876127</v>
+        <v>0.03894510886231218</v>
       </c>
       <c r="AI12">
-        <v>0.06786894890699914</v>
+        <v>0.01917560018118677</v>
       </c>
       <c r="AJ12">
-        <v>-0.04181336165425918</v>
+        <v>-0.09810791871058167</v>
       </c>
       <c r="AK12">
-        <v>-0.006818994551983561</v>
+        <v>-0.04504504504504505</v>
       </c>
       <c r="AL12">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="AN12">
-        <v>-1.499348109517601</v>
-      </c>
-      <c r="AO12">
-        <v>-30.56338028169014</v>
-      </c>
-      <c r="AP12">
-        <v>0.2119262829337371</v>
-      </c>
-      <c r="AQ12">
-        <v>-30.56338028169014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1939,7 +1912,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adamas Finance Asia Limited (AIM:ADAM)</t>
+          <t>UBA Investments Limited (SEHK:768)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1947,17 +1920,35 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D13">
+        <v>-0.593</v>
+      </c>
+      <c r="G13">
+        <v>-0.6186612576064908</v>
+      </c>
+      <c r="H13">
+        <v>-0.6186612576064908</v>
+      </c>
+      <c r="I13">
+        <v>-0.5841784989858012</v>
+      </c>
+      <c r="J13">
+        <v>-0.5841784989858012</v>
+      </c>
       <c r="K13">
-        <v>-2.22</v>
+        <v>-4.21</v>
+      </c>
+      <c r="L13">
+        <v>-8.539553752535497</v>
       </c>
       <c r="M13">
-        <v>0.129</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.005139442231075697</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>-0.0581081081081081</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>-0</v>
@@ -1969,37 +1960,34 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.129</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>5.38</v>
+        <v>0.458</v>
       </c>
       <c r="V13">
-        <v>0.2143426294820717</v>
+        <v>0.07979094076655052</v>
       </c>
       <c r="W13">
-        <v>-0.02336842105263158</v>
+        <v>-0.2598765432098766</v>
       </c>
       <c r="X13">
-        <v>0.05045015326463245</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y13">
-        <v>-0.07381857431726403</v>
+        <v>-0.2983399274643264</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>0.03590677348871085</v>
       </c>
       <c r="AA13">
-        <v>-0.04436099049407346</v>
+        <v>-0.02097596504005827</v>
       </c>
       <c r="AB13">
-        <v>0.05045015326463245</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC13">
-        <v>-0.09481114375870592</v>
+        <v>-0.05943934929450809</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2011,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="AG13">
-        <v>-5.38</v>
+        <v>-0.458</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2020,19 +2008,22 @@
         <v>0</v>
       </c>
       <c r="AJ13">
-        <v>-0.2728194726166328</v>
+        <v>-0.08670957970465733</v>
       </c>
       <c r="AK13">
-        <v>-0.05904302019315188</v>
+        <v>-0.03900528019076819</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="AM13">
-        <v>-0.824</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AO13">
+        <v>-22.15384615384615</v>
       </c>
       <c r="AQ13">
-        <v>4.587378640776699</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="14">
@@ -2043,7 +2034,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lamtex Holdings Limited (SEHK:1041)</t>
+          <t>Unity Investments Holdings Limited (SEHK:913)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2052,25 +2043,25 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0843</v>
+        <v>-0.527</v>
       </c>
       <c r="G14">
-        <v>-0.1443786982248521</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-0.1443786982248521</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.2278601730473774</v>
+        <v>-5.472440944881889</v>
       </c>
       <c r="J14">
-        <v>-0.2278601730473774</v>
+        <v>-5.472440944881889</v>
       </c>
       <c r="K14">
-        <v>-9.94</v>
+        <v>-11.2</v>
       </c>
       <c r="L14">
-        <v>-0.5881656804733728</v>
+        <v>-44.09448818897638</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2094,73 +2085,61 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>4.81</v>
+        <v>0.546</v>
       </c>
       <c r="V14">
-        <v>0.1781481481481481</v>
+        <v>0.1255172413793104</v>
       </c>
       <c r="W14">
-        <v>-0.1176331360946745</v>
+        <v>-0.2685851318944844</v>
       </c>
       <c r="X14">
-        <v>0.05916665337508915</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="Y14">
-        <v>-0.1767997894697637</v>
+        <v>-0.3070485161489342</v>
       </c>
       <c r="Z14">
-        <v>0.2095313593011792</v>
+        <v>0.006099757450589562</v>
       </c>
       <c r="AA14">
-        <v>-0.04774385178921889</v>
+        <v>-0.03338056242645469</v>
       </c>
       <c r="AB14">
-        <v>0.05316392869150846</v>
+        <v>0.03846338425444983</v>
       </c>
       <c r="AC14">
-        <v>-0.1009077804807273</v>
+        <v>-0.07184394668090452</v>
       </c>
       <c r="AD14">
-        <v>8.34</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>0.6791846225033888</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>9.019184622503388</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>4.209184622503389</v>
+        <v>-0.546</v>
       </c>
       <c r="AH14">
-        <v>0.2503994667571834</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.1054638752967026</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.1348700606381224</v>
+        <v>-0.1435331230283912</v>
       </c>
       <c r="AK14">
-        <v>0.0521524860174313</v>
+        <v>-0.01746976387022461</v>
       </c>
       <c r="AL14">
-        <v>0.068</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0.034</v>
-      </c>
-      <c r="AN14">
-        <v>-2.471111111111111</v>
-      </c>
-      <c r="AO14">
-        <v>-61.3235294117647</v>
-      </c>
-      <c r="AP14">
-        <v>-1.247165814075078</v>
-      </c>
-      <c r="AQ14">
-        <v>-122.6470588235294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2171,7 +2150,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FDG Kinetic Limited (SEHK:378)</t>
+          <t>Adamas Finance Asia Limited (AIM:ADAM)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2179,32 +2158,17 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G15">
-        <v>-0.6586921850079746</v>
-      </c>
-      <c r="H15">
-        <v>-1.143540669856459</v>
-      </c>
-      <c r="I15">
-        <v>-1.049122180940823</v>
-      </c>
-      <c r="J15">
-        <v>-1.049122180940823</v>
-      </c>
       <c r="K15">
-        <v>-70.90000000000001</v>
-      </c>
-      <c r="L15">
-        <v>-11.30781499202552</v>
+        <v>-3.31</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>4.3</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.1155913978494623</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>-1.299093655589124</v>
       </c>
       <c r="P15">
         <v>-0</v>
@@ -2216,76 +2180,73 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>4.3</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>0.03369565217391304</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="W15">
-        <v>-0.6358744394618835</v>
+        <v>-0.03430051813471503</v>
       </c>
       <c r="X15">
-        <v>0.07014818371154041</v>
+        <v>0.04073487478423626</v>
       </c>
       <c r="Y15">
-        <v>-0.7060226231734239</v>
+        <v>-0.07503539291895128</v>
       </c>
       <c r="Z15">
-        <v>0.05342309077290497</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>-0.05604734950426962</v>
+        <v>-0.06123792800702371</v>
       </c>
       <c r="AB15">
-        <v>0.06901271247287492</v>
+        <v>0.03947795797284524</v>
       </c>
       <c r="AC15">
-        <v>-0.1250600619771445</v>
+        <v>-0.1007158859798689</v>
       </c>
       <c r="AD15">
-        <v>34.7</v>
+        <v>3.47</v>
       </c>
       <c r="AE15">
-        <v>0.02498037249480135</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>34.72498037249481</v>
+        <v>3.47</v>
       </c>
       <c r="AG15">
-        <v>33.17498037249481</v>
+        <v>0.4700000000000002</v>
       </c>
       <c r="AH15">
-        <v>0.4301639989537434</v>
+        <v>0.08532087533808705</v>
       </c>
       <c r="AI15">
-        <v>0.4496599442952114</v>
+        <v>0.03347159255329411</v>
       </c>
       <c r="AJ15">
-        <v>0.4190083813903882</v>
+        <v>0.01247677196708256</v>
       </c>
       <c r="AK15">
-        <v>0.4383876970855845</v>
+        <v>0.004668719578821895</v>
       </c>
       <c r="AL15">
-        <v>5.99</v>
+        <v>0.277</v>
       </c>
       <c r="AM15">
-        <v>5.99</v>
-      </c>
-      <c r="AN15">
-        <v>-8.216907411792565</v>
+        <v>-1.053</v>
       </c>
       <c r="AO15">
-        <v>-1.101836393989983</v>
-      </c>
-      <c r="AP15">
-        <v>-7.85578507518229</v>
+        <v>-20.14440433212996</v>
       </c>
       <c r="AQ15">
-        <v>-1.101836393989983</v>
+        <v>5.2991452991453</v>
       </c>
     </row>
     <row r="16">
@@ -2296,7 +2257,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SHK Hong Kong Industries Limited (SEHK:666)</t>
+          <t>Wealthking Investments Limited (SEHK:1140)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2304,23 +2265,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D16">
+        <v>0.384</v>
+      </c>
       <c r="G16">
-        <v>-0</v>
+        <v>-5.11875</v>
       </c>
       <c r="H16">
-        <v>-0</v>
+        <v>-5.11875</v>
       </c>
       <c r="I16">
-        <v>1.651923076923077</v>
+        <v>-4.50625</v>
       </c>
       <c r="J16">
-        <v>1.651923076923077</v>
+        <v>-4.50625</v>
       </c>
       <c r="K16">
-        <v>-8.43</v>
+        <v>-156.6</v>
       </c>
       <c r="L16">
-        <v>1.621153846153846</v>
+        <v>-9.7875</v>
       </c>
       <c r="M16">
         <v>-0</v>
@@ -2344,61 +2308,73 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>28.8</v>
+        <v>5.34</v>
       </c>
       <c r="V16">
-        <v>0.4396946564885496</v>
+        <v>0.01699013681196309</v>
       </c>
       <c r="W16">
-        <v>-0.05762132604237867</v>
+        <v>-0.2134969325153374</v>
       </c>
       <c r="X16">
-        <v>0.05045015326463245</v>
+        <v>0.04189567240355649</v>
       </c>
       <c r="Y16">
-        <v>-0.1080714793070111</v>
+        <v>-0.2553926049188939</v>
       </c>
       <c r="Z16">
-        <v>-0.05093046033300686</v>
+        <v>0.02033321048685331</v>
       </c>
       <c r="AA16">
-        <v>-0.08413320274240939</v>
+        <v>-0.09162652975638272</v>
       </c>
       <c r="AB16">
-        <v>0.05045015326463245</v>
+        <v>0.04036356169588665</v>
       </c>
       <c r="AC16">
-        <v>-0.1345833560070419</v>
+        <v>-0.1319900914522694</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>44.3</v>
       </c>
       <c r="AG16">
-        <v>-28.8</v>
+        <v>38.95999999999999</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.1235359732292247</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.06992896606156274</v>
       </c>
       <c r="AJ16">
-        <v>-0.7847411444141689</v>
+        <v>0.1102870407065617</v>
       </c>
       <c r="AK16">
-        <v>-0.2592259225922592</v>
+        <v>0.06202241467142128</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2.79</v>
+      </c>
+      <c r="AN16">
+        <v>-0.622191011235955</v>
+      </c>
+      <c r="AO16">
+        <v>-25.84229390681003</v>
+      </c>
+      <c r="AP16">
+        <v>-0.5471910112359549</v>
+      </c>
+      <c r="AQ16">
+        <v>-25.84229390681003</v>
       </c>
     </row>
     <row r="17">
@@ -2409,7 +2385,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Asia-Pac Financial Investment Company Limited (SEHK:8193)</t>
+          <t>Alberton Acquisition Corporation (NasdaqCM:ALAC)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2417,35 +2393,17 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D17">
-        <v>-0.05599999999999999</v>
-      </c>
-      <c r="G17">
-        <v>-0.3240058910162003</v>
-      </c>
-      <c r="H17">
-        <v>-0.3240058910162003</v>
-      </c>
-      <c r="I17">
-        <v>-0.4026451916967058</v>
-      </c>
-      <c r="J17">
-        <v>-0.4026451916967058</v>
-      </c>
       <c r="K17">
-        <v>-11.5</v>
-      </c>
-      <c r="L17">
-        <v>-1.693667157584683</v>
+        <v>0.626</v>
       </c>
       <c r="M17">
-        <v>-0</v>
+        <v>105.9</v>
       </c>
       <c r="N17">
-        <v>-0</v>
+        <v>2.009487666034155</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>169.1693290734824</v>
       </c>
       <c r="P17">
         <v>-0</v>
@@ -2454,79 +2412,73 @@
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>105.9</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>0.679</v>
+        <v>0.002</v>
       </c>
       <c r="V17">
-        <v>0.03361386138613862</v>
+        <v>3.795066413662239e-05</v>
       </c>
       <c r="W17">
-        <v>-0.3050397877984085</v>
+        <v>0.1252</v>
       </c>
       <c r="X17">
-        <v>0.06607393279206628</v>
+        <v>0.03982650961051763</v>
       </c>
       <c r="Y17">
-        <v>-0.3711137205904748</v>
+        <v>0.08537349038948237</v>
       </c>
       <c r="Z17">
-        <v>0.2221509401029412</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-0.08944800786335218</v>
+        <v>-0.09750479846449137</v>
       </c>
       <c r="AB17">
-        <v>0.05722968300942138</v>
+        <v>0.03880160171705482</v>
       </c>
       <c r="AC17">
-        <v>-0.1466776908727735</v>
+        <v>-0.1363064001815462</v>
       </c>
       <c r="AD17">
-        <v>10.1</v>
+        <v>2.95</v>
       </c>
       <c r="AE17">
-        <v>1.994804258103163</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>12.09480425810316</v>
+        <v>2.95</v>
       </c>
       <c r="AG17">
-        <v>11.41580425810316</v>
+        <v>2.948</v>
       </c>
       <c r="AH17">
-        <v>0.3745123878578216</v>
+        <v>0.05300988319856244</v>
       </c>
       <c r="AI17">
-        <v>0.2986754592271661</v>
+        <v>0.3710691823899371</v>
       </c>
       <c r="AJ17">
-        <v>0.3610790402454266</v>
+        <v>0.05297584818861415</v>
       </c>
       <c r="AK17">
-        <v>0.2867154003495951</v>
+        <v>0.3709109209864117</v>
       </c>
       <c r="AL17">
-        <v>0.473</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>0.459</v>
-      </c>
-      <c r="AN17">
-        <v>-4.459161147902869</v>
-      </c>
-      <c r="AO17">
-        <v>-7.019027484143764</v>
-      </c>
-      <c r="AP17">
-        <v>-5.040090180177996</v>
+        <v>-1.13</v>
       </c>
       <c r="AQ17">
-        <v>-7.233115468409586</v>
+        <v>0.4495575221238938</v>
       </c>
     </row>
     <row r="18">
@@ -2537,7 +2489,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tottenham Acquisition I Limited (NasdaqCM:TOTA)</t>
+          <t>Capital VC Limited (SEHK:2324)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2545,8 +2497,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="G18">
+        <v>1.233628318584071</v>
+      </c>
+      <c r="H18">
+        <v>1.233628318584071</v>
+      </c>
+      <c r="I18">
+        <v>1.433628318584071</v>
+      </c>
+      <c r="J18">
+        <v>1.433628318584071</v>
+      </c>
       <c r="K18">
-        <v>0.404</v>
+        <v>-13.6</v>
+      </c>
+      <c r="L18">
+        <v>2.407079646017699</v>
       </c>
       <c r="M18">
         <v>-0</v>
@@ -2555,7 +2522,7 @@
         <v>-0</v>
       </c>
       <c r="O18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>-0</v>
@@ -2564,70 +2531,79 @@
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.448</v>
+        <v>2.17</v>
       </c>
       <c r="V18">
-        <v>0.02083720930232558</v>
+        <v>0.1954954954954955</v>
       </c>
       <c r="W18">
-        <v>0.08801742919389979</v>
+        <v>-0.1948424068767908</v>
       </c>
       <c r="X18">
-        <v>0.05134705446575991</v>
+        <v>0.0420831908000866</v>
       </c>
       <c r="Y18">
-        <v>0.03667037472813989</v>
+        <v>-0.2369255976768774</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-0.08498796630565583</v>
       </c>
       <c r="AA18">
-        <v>-0.1407216494845361</v>
+        <v>-0.121841155234657</v>
       </c>
       <c r="AB18">
-        <v>0.05053837151405175</v>
+        <v>0.04000225472198182</v>
       </c>
       <c r="AC18">
-        <v>-0.1912600209985879</v>
+        <v>-0.1618434099566388</v>
       </c>
       <c r="AD18">
-        <v>0.739</v>
+        <v>1.65</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.739</v>
+        <v>1.65</v>
       </c>
       <c r="AG18">
-        <v>0.291</v>
+        <v>-0.52</v>
       </c>
       <c r="AH18">
-        <v>0.03322991141688025</v>
+        <v>0.1294117647058823</v>
       </c>
       <c r="AI18">
-        <v>0.1287680780623802</v>
+        <v>0.02770780856423174</v>
       </c>
       <c r="AJ18">
-        <v>0.01335413702904869</v>
+        <v>-0.04914933837429112</v>
       </c>
       <c r="AK18">
-        <v>0.05499905499905499</v>
+        <v>-0.009062391077030324</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="AM18">
-        <v>-0.95</v>
+        <v>0.267</v>
+      </c>
+      <c r="AN18">
+        <v>-0.2367288378766141</v>
+      </c>
+      <c r="AO18">
+        <v>-30.33707865168539</v>
+      </c>
+      <c r="AP18">
+        <v>0.07460545193687232</v>
       </c>
       <c r="AQ18">
-        <v>0.5747368421052632</v>
+        <v>-30.33707865168539</v>
       </c>
     </row>
     <row r="19">
@@ -2638,7 +2614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>China Financial International Investments Limited (SEHK:721)</t>
+          <t>China Investment Development Limited (SEHK:204)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2646,23 +2622,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D19">
+        <v>-0.386</v>
+      </c>
       <c r="G19">
-        <v>1.107049608355091</v>
+        <v>-188.75</v>
       </c>
       <c r="H19">
-        <v>1.107049608355091</v>
+        <v>-188.75</v>
       </c>
       <c r="I19">
-        <v>1.098228385005436</v>
+        <v>-163.4477349187595</v>
       </c>
       <c r="J19">
-        <v>1.098228385005436</v>
+        <v>-163.4477349187595</v>
       </c>
       <c r="K19">
-        <v>-41.9</v>
+        <v>-3.03</v>
       </c>
       <c r="L19">
-        <v>1.093994778067885</v>
+        <v>-378.7499999999999</v>
       </c>
       <c r="M19">
         <v>-0</v>
@@ -2686,73 +2665,73 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>4.62</v>
+        <v>0.293</v>
       </c>
       <c r="V19">
-        <v>0.02953964194373402</v>
+        <v>0.01085185185185185</v>
       </c>
       <c r="W19">
-        <v>-0.2251477700161204</v>
+        <v>-0.3535589264877479</v>
       </c>
       <c r="X19">
-        <v>0.05192014215836038</v>
+        <v>0.03846600825294028</v>
       </c>
       <c r="Y19">
-        <v>-0.2770679121744807</v>
+        <v>-0.3920249347406882</v>
       </c>
       <c r="Z19">
-        <v>-0.218506613637882</v>
+        <v>0.0009486642893474938</v>
       </c>
       <c r="AA19">
-        <v>-0.2399701654085379</v>
+        <v>-0.1550570292921625</v>
       </c>
       <c r="AB19">
-        <v>0.050858918404473</v>
+        <v>0.03846466546555966</v>
       </c>
       <c r="AC19">
-        <v>-0.2908290838130109</v>
+        <v>-0.1935216947577222</v>
       </c>
       <c r="AD19">
-        <v>8.06</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>0.7507357285409498</v>
+        <v>0.002909396750379391</v>
       </c>
       <c r="AF19">
-        <v>8.81073572854095</v>
+        <v>0.002909396750379391</v>
       </c>
       <c r="AG19">
-        <v>4.190735728540949</v>
+        <v>-0.2900906032496206</v>
       </c>
       <c r="AH19">
-        <v>0.05333028564813087</v>
+        <v>0.0001077438252164605</v>
       </c>
       <c r="AI19">
-        <v>0.05964858061998348</v>
+        <v>0.0005404877801093534</v>
       </c>
       <c r="AJ19">
-        <v>0.0260957502282378</v>
+        <v>-0.01086078574586681</v>
       </c>
       <c r="AK19">
-        <v>0.02928726103198771</v>
+        <v>-0.05699327446473352</v>
       </c>
       <c r="AL19">
-        <v>0.403</v>
+        <v>0.003</v>
       </c>
       <c r="AM19">
-        <v>0.403</v>
+        <v>0.003</v>
       </c>
       <c r="AN19">
-        <v>-0.1923076923076923</v>
+        <v>-0</v>
       </c>
       <c r="AO19">
-        <v>-105.2109181141439</v>
+        <v>-436.6666666666667</v>
       </c>
       <c r="AP19">
-        <v>-0.09998892270807763</v>
+        <v>0.2236627627213728</v>
       </c>
       <c r="AQ19">
-        <v>-105.2109181141439</v>
+        <v>-436.6666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -2763,7 +2742,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Unity Investments Holdings Limited (SEHK:913)</t>
+          <t>Asia-Pac Financial Investment Company Limited (SEHK:8193)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2771,23 +2750,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D20">
+        <v>-0.033</v>
+      </c>
       <c r="G20">
-        <v>-0</v>
+        <v>-1.071167883211679</v>
       </c>
       <c r="H20">
-        <v>-0</v>
+        <v>-1.071167883211679</v>
       </c>
       <c r="I20">
-        <v>1.058823529411765</v>
+        <v>-0.7787553886997347</v>
       </c>
       <c r="J20">
-        <v>1.058823529411765</v>
+        <v>-0.7787553886997347</v>
       </c>
       <c r="K20">
-        <v>-14.8</v>
+        <v>-10.4</v>
       </c>
       <c r="L20">
-        <v>1.088235294117647</v>
+        <v>-1.897810218978102</v>
       </c>
       <c r="M20">
         <v>-0</v>
@@ -2811,67 +2793,73 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.059</v>
+        <v>0.266</v>
       </c>
       <c r="V20">
-        <v>0.007257072570725706</v>
+        <v>0.08036253776435046</v>
       </c>
       <c r="W20">
-        <v>-0.2628774422735347</v>
+        <v>-0.3809523809523809</v>
       </c>
       <c r="X20">
-        <v>0.05045015326463245</v>
+        <v>0.106609839031498</v>
       </c>
       <c r="Y20">
-        <v>-0.3133275955381671</v>
+        <v>-0.4875622199838789</v>
       </c>
       <c r="Z20">
-        <v>-0.2292843294276321</v>
+        <v>0.2097696168213939</v>
       </c>
       <c r="AA20">
-        <v>-0.2427716429233752</v>
+        <v>-0.163359219485139</v>
       </c>
       <c r="AB20">
-        <v>0.05045015326463245</v>
+        <v>0.04979553132165318</v>
       </c>
       <c r="AC20">
-        <v>-0.2932217961880077</v>
+        <v>-0.2131547508067922</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>9.26</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>0.002897650372733811</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>9.262897650372734</v>
       </c>
       <c r="AG20">
-        <v>-0.059</v>
+        <v>8.996897650372734</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>0.7367353101850891</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>0.3581538996748586</v>
       </c>
       <c r="AJ20">
-        <v>-0.007310122661380249</v>
+        <v>0.7310451346851209</v>
       </c>
       <c r="AK20">
-        <v>-0.001416872793640883</v>
+        <v>0.3514839092323254</v>
       </c>
       <c r="AL20">
-        <v>0.145</v>
+        <v>0.403</v>
       </c>
       <c r="AM20">
-        <v>0.145</v>
+        <v>0.387</v>
+      </c>
+      <c r="AN20">
+        <v>-2.190678968535604</v>
       </c>
       <c r="AO20">
-        <v>-99.31034482758622</v>
+        <v>-10.5955334987593</v>
+      </c>
+      <c r="AP20">
+        <v>-2.128435687336819</v>
       </c>
       <c r="AQ20">
-        <v>-99.31034482758622</v>
+        <v>-11.03359173126615</v>
       </c>
     </row>
     <row r="21">
@@ -2891,22 +2879,22 @@
         </is>
       </c>
       <c r="G21">
-        <v>2.164009111617312</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="H21">
-        <v>2.164009111617312</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="I21">
-        <v>1.403396082863327</v>
+        <v>2.298850574712644</v>
       </c>
       <c r="J21">
-        <v>1.403396082863327</v>
+        <v>2.298850574712644</v>
       </c>
       <c r="K21">
-        <v>-6.69</v>
+        <v>-4.33</v>
       </c>
       <c r="L21">
-        <v>1.523917995444191</v>
+        <v>2.488505747126437</v>
       </c>
       <c r="M21">
         <v>-0</v>
@@ -2930,73 +2918,73 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0.058</v>
+        <v>2.79</v>
       </c>
       <c r="V21">
-        <v>0.004328358208955224</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="W21">
-        <v>-0.353968253968254</v>
+        <v>-0.2723270440251572</v>
       </c>
       <c r="X21">
-        <v>0.06424591648427776</v>
+        <v>0.04270233616210124</v>
       </c>
       <c r="Y21">
-        <v>-0.4182141704525318</v>
+        <v>-0.3150293801872585</v>
       </c>
       <c r="Z21">
-        <v>-0.1713268077503442</v>
+        <v>-0.07600908614363096</v>
       </c>
       <c r="AA21">
-        <v>-0.2404393708863113</v>
+        <v>-0.1747335313646689</v>
       </c>
       <c r="AB21">
-        <v>0.0541983821907789</v>
+        <v>0.03940935515143586</v>
       </c>
       <c r="AC21">
-        <v>-0.2946377530770902</v>
+        <v>-0.2141428865161047</v>
       </c>
       <c r="AD21">
-        <v>7.05</v>
+        <v>2.82</v>
       </c>
       <c r="AE21">
-        <v>0.03454401885002395</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>7.084544018850024</v>
+        <v>2.82</v>
       </c>
       <c r="AG21">
-        <v>7.026544018850024</v>
+        <v>0.0299999999999998</v>
       </c>
       <c r="AH21">
-        <v>0.3458482655181768</v>
+        <v>0.1482649842271293</v>
       </c>
       <c r="AI21">
-        <v>0.3082307838275959</v>
+        <v>0.1219723183391003</v>
       </c>
       <c r="AJ21">
-        <v>0.3439908391926597</v>
+        <v>0.001848428835489821</v>
       </c>
       <c r="AK21">
-        <v>0.3064807331219592</v>
+        <v>0.00147565174618789</v>
       </c>
       <c r="AL21">
-        <v>0.514</v>
+        <v>0.328</v>
       </c>
       <c r="AM21">
-        <v>0.514</v>
+        <v>0.328</v>
       </c>
       <c r="AN21">
-        <v>-1.145596360090998</v>
+        <v>-0.705</v>
       </c>
       <c r="AO21">
-        <v>-12.04280155642023</v>
+        <v>-12.19512195121951</v>
       </c>
       <c r="AP21">
-        <v>-1.141784858441668</v>
+        <v>-0.007499999999999951</v>
       </c>
       <c r="AQ21">
-        <v>-12.04280155642023</v>
+        <v>-12.19512195121951</v>
       </c>
     </row>
     <row r="22">
@@ -3007,7 +2995,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Capital VC Limited (SEHK:2324)</t>
+          <t>China Financial International Investments Limited (SEHK:721)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3016,22 +3004,22 @@
         </is>
       </c>
       <c r="G22">
-        <v>1.153846153846154</v>
+        <v>1.153508771929824</v>
       </c>
       <c r="H22">
-        <v>1.153846153846154</v>
+        <v>1.153508771929824</v>
       </c>
       <c r="I22">
-        <v>1.225274725274725</v>
+        <v>1.153508771929824</v>
       </c>
       <c r="J22">
-        <v>1.225274725274725</v>
+        <v>1.153508771929824</v>
       </c>
       <c r="K22">
-        <v>-23.4</v>
+        <v>-28.2</v>
       </c>
       <c r="L22">
-        <v>1.285714285714286</v>
+        <v>1.236842105263158</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -3055,73 +3043,73 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>3.32</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="V22">
-        <v>0.3608695652173913</v>
+        <v>0.04452709883103083</v>
       </c>
       <c r="W22">
-        <v>-0.248936170212766</v>
+        <v>-0.203023758099352</v>
       </c>
       <c r="X22">
-        <v>0.05045015326463245</v>
+        <v>0.03957226693009079</v>
       </c>
       <c r="Y22">
-        <v>-0.2993863234773984</v>
+        <v>-0.2425960250294428</v>
       </c>
       <c r="Z22">
-        <v>-0.2098466505246166</v>
+        <v>-0.1601798510608402</v>
       </c>
       <c r="AA22">
-        <v>-0.2571197970713709</v>
+        <v>-0.184768863285092</v>
       </c>
       <c r="AB22">
-        <v>0.05045015326463245</v>
+        <v>0.03898128941925861</v>
       </c>
       <c r="AC22">
-        <v>-0.3075699503360033</v>
+        <v>-0.2237501527043506</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>8.57</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>8.57</v>
       </c>
       <c r="AG22">
-        <v>-3.32</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>0.04355338720333385</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.07532741496000703</v>
       </c>
       <c r="AJ22">
-        <v>-0.5646258503401361</v>
+        <v>0.001008546101173096</v>
       </c>
       <c r="AK22">
-        <v>-0.04993983152827917</v>
+        <v>0.001802827592750731</v>
       </c>
       <c r="AL22">
-        <v>0.166</v>
+        <v>0.433</v>
       </c>
       <c r="AM22">
-        <v>0.166</v>
+        <v>0.433</v>
       </c>
       <c r="AN22">
-        <v>-0</v>
+        <v>-0.3258555133079848</v>
       </c>
       <c r="AO22">
-        <v>-134.3373493975904</v>
+        <v>-60.73903002309469</v>
       </c>
       <c r="AP22">
-        <v>0.1580952380952381</v>
+        <v>-0.007224334600760437</v>
       </c>
       <c r="AQ22">
-        <v>-134.3373493975904</v>
+        <v>-60.73903002309469</v>
       </c>
     </row>
     <row r="23">
@@ -3132,7 +3120,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DT Capital Limited (SEHK:356)</t>
+          <t>FDG Kinetic Limited (SEHK:378)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3141,22 +3129,22 @@
         </is>
       </c>
       <c r="G23">
-        <v>1.245535714285714</v>
+        <v>-0.9968152866242039</v>
       </c>
       <c r="H23">
-        <v>1.245535714285714</v>
+        <v>-1.802547770700637</v>
       </c>
       <c r="I23">
-        <v>1.184098223299405</v>
+        <v>-4.258242551366522</v>
       </c>
       <c r="J23">
-        <v>1.184098223299405</v>
+        <v>-4.258242551366522</v>
       </c>
       <c r="K23">
-        <v>-5.53</v>
+        <v>-45.4</v>
       </c>
       <c r="L23">
-        <v>1.234375</v>
+        <v>-14.45859872611465</v>
       </c>
       <c r="M23">
         <v>-0</v>
@@ -3180,73 +3168,73 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>5.54</v>
+        <v>4.09</v>
       </c>
       <c r="V23">
-        <v>0.3794520547945205</v>
+        <v>0.1514814814814815</v>
       </c>
       <c r="W23">
-        <v>-0.2135135135135135</v>
+        <v>-1.068235294117647</v>
       </c>
       <c r="X23">
-        <v>0.05056596754965785</v>
+        <v>0.07619403187921051</v>
       </c>
       <c r="Y23">
-        <v>-0.2640794810631714</v>
+        <v>-1.144429325996857</v>
       </c>
       <c r="Z23">
-        <v>-0.2458998370008553</v>
+        <v>0.04194193395208897</v>
       </c>
       <c r="AA23">
-        <v>-0.291169560102326</v>
+        <v>-0.1785989278413895</v>
       </c>
       <c r="AB23">
-        <v>0.05048402209120061</v>
+        <v>0.0533659129864573</v>
       </c>
       <c r="AC23">
-        <v>-0.3416535821935267</v>
+        <v>-0.2319648408278468</v>
       </c>
       <c r="AD23">
-        <v>0.026</v>
+        <v>41.8</v>
       </c>
       <c r="AE23">
-        <v>0.03880020190667553</v>
+        <v>0.0344080564543915</v>
       </c>
       <c r="AF23">
-        <v>0.06480020190667553</v>
+        <v>41.83440805645439</v>
       </c>
       <c r="AG23">
-        <v>-5.475199798093325</v>
+        <v>37.74440805645439</v>
       </c>
       <c r="AH23">
-        <v>0.004418757911086329</v>
+        <v>0.6077543083125519</v>
       </c>
       <c r="AI23">
-        <v>0.002936813445565484</v>
+        <v>1.012463876522538</v>
       </c>
       <c r="AJ23">
-        <v>-0.6000350338574266</v>
+        <v>0.5829755679215239</v>
       </c>
       <c r="AK23">
-        <v>-0.3313322842754602</v>
+        <v>1.013833150374539</v>
       </c>
       <c r="AL23">
-        <v>0.001</v>
+        <v>6.85</v>
       </c>
       <c r="AM23">
-        <v>0.001</v>
+        <v>6.85</v>
       </c>
       <c r="AN23">
-        <v>-0.004917722716096085</v>
+        <v>-4.699797616370587</v>
       </c>
       <c r="AO23">
-        <v>-5330</v>
+        <v>-1.956204379562044</v>
       </c>
       <c r="AP23">
-        <v>1.035596708548009</v>
+        <v>-4.243805718063232</v>
       </c>
       <c r="AQ23">
-        <v>-5330</v>
+        <v>-1.956204379562044</v>
       </c>
     </row>
     <row r="24">
@@ -3257,7 +3245,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Greenpro Capital Corp. (NasdaqCM:GRNQ)</t>
+          <t>Tottenham Acquisition I Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3265,23 +3253,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G24">
-        <v>-0.4276018099547511</v>
-      </c>
-      <c r="H24">
-        <v>-0.4276018099547511</v>
-      </c>
-      <c r="I24">
-        <v>-0.4499918821161826</v>
-      </c>
-      <c r="J24">
-        <v>-0.4499918821161826</v>
-      </c>
       <c r="K24">
-        <v>-4.06</v>
-      </c>
-      <c r="L24">
-        <v>-0.918552036199095</v>
+        <v>-0.459</v>
       </c>
       <c r="M24">
         <v>-0</v>
@@ -3305,73 +3278,64 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>0.704</v>
+        <v>0.44</v>
       </c>
       <c r="V24">
-        <v>0.02034682080924855</v>
+        <v>0.0221105527638191</v>
       </c>
       <c r="W24">
-        <v>-0.5265888456549934</v>
+        <v>-0.09180000000000001</v>
       </c>
       <c r="X24">
-        <v>0.05247493306195132</v>
+        <v>0.0424036652215322</v>
       </c>
       <c r="Y24">
-        <v>-0.5790637787169447</v>
+        <v>-0.1342036652215322</v>
       </c>
       <c r="Z24">
-        <v>0.6890294022572124</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-0.3100576375551113</v>
+        <v>-0.2041202041202042</v>
       </c>
       <c r="AB24">
-        <v>0.05123056486945997</v>
+        <v>0.03935198612203203</v>
       </c>
       <c r="AC24">
-        <v>-0.3612882024245713</v>
+        <v>-0.2434721902422362</v>
       </c>
       <c r="AD24">
-        <v>2.1</v>
+        <v>3.22</v>
       </c>
       <c r="AE24">
-        <v>0.5848205947676369</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>2.684820594767637</v>
+        <v>3.22</v>
       </c>
       <c r="AG24">
-        <v>1.980820594767637</v>
+        <v>2.78</v>
       </c>
       <c r="AH24">
-        <v>0.07200840856786665</v>
+        <v>0.1392733564013841</v>
       </c>
       <c r="AI24">
-        <v>0.4114780714309049</v>
+        <v>0.3917274939172749</v>
       </c>
       <c r="AJ24">
-        <v>0.05414915692325845</v>
+        <v>0.1225749559082892</v>
       </c>
       <c r="AK24">
-        <v>0.3402992005196323</v>
+        <v>0.3573264781491003</v>
       </c>
       <c r="AL24">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>0.067</v>
-      </c>
-      <c r="AN24">
-        <v>-1.294697903822442</v>
-      </c>
-      <c r="AO24">
-        <v>-16.92913385826771</v>
-      </c>
-      <c r="AP24">
-        <v>-1.221221081854277</v>
+        <v>-0.619</v>
       </c>
       <c r="AQ24">
-        <v>-32.08955223880596</v>
+        <v>1.744749596122779</v>
       </c>
     </row>
     <row r="25">
@@ -3382,7 +3346,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ping An Securities Group (Holdings) Limited (SEHK:231)</t>
+          <t>Goldstone Investment Group Limited (SEHK:901)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3390,26 +3354,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D25">
-        <v>0.16</v>
-      </c>
       <c r="G25">
-        <v>-4</v>
+        <v>5.883280757097792</v>
       </c>
       <c r="H25">
-        <v>-4</v>
+        <v>5.883280757097792</v>
       </c>
       <c r="I25">
-        <v>-3.268119901507409</v>
+        <v>4.46372239747634</v>
       </c>
       <c r="J25">
-        <v>-3.268119901507409</v>
+        <v>4.46372239747634</v>
       </c>
       <c r="K25">
-        <v>-162.6</v>
+        <v>-4.64</v>
       </c>
       <c r="L25">
-        <v>-15.48571428571429</v>
+        <v>7.318611987381703</v>
       </c>
       <c r="M25">
         <v>-0</v>
@@ -3433,73 +3394,73 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>16.7</v>
+        <v>0.018</v>
       </c>
       <c r="V25">
-        <v>0.7877358490566038</v>
+        <v>0.0002666666666666666</v>
       </c>
       <c r="W25">
-        <v>-1.031071655041218</v>
+        <v>0.4879074658254469</v>
       </c>
       <c r="X25">
-        <v>0.120579044056818</v>
+        <v>0.04376658366232011</v>
       </c>
       <c r="Y25">
-        <v>-1.151650699098036</v>
+        <v>0.4441408821631267</v>
       </c>
       <c r="Z25">
-        <v>0.1076081031605682</v>
+        <v>-0.06468727680848893</v>
       </c>
       <c r="AA25">
-        <v>-0.3516761835025152</v>
+        <v>-0.2887460463218039</v>
       </c>
       <c r="AB25">
-        <v>0.05834892614538281</v>
+        <v>0.04121410329800349</v>
       </c>
       <c r="AC25">
-        <v>-0.4100251096478981</v>
+        <v>-0.3299601496198074</v>
       </c>
       <c r="AD25">
-        <v>52.3</v>
+        <v>14.7</v>
       </c>
       <c r="AE25">
-        <v>4.676294829138963</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>56.97629482913896</v>
+        <v>14.7</v>
       </c>
       <c r="AG25">
-        <v>40.27629482913896</v>
+        <v>14.682</v>
       </c>
       <c r="AH25">
-        <v>0.728818050966288</v>
+        <v>0.1788321167883211</v>
       </c>
       <c r="AI25">
-        <v>0.4833566826283927</v>
+        <v>29.4</v>
       </c>
       <c r="AJ25">
-        <v>0.6551516310649308</v>
+        <v>0.1786522596188946</v>
       </c>
       <c r="AK25">
-        <v>0.3980803497217939</v>
+        <v>30.46058091286311</v>
       </c>
       <c r="AL25">
-        <v>6.68</v>
+        <v>1.79</v>
       </c>
       <c r="AM25">
-        <v>6.59</v>
+        <v>1.79</v>
       </c>
       <c r="AN25">
-        <v>-1.842847075405215</v>
+        <v>-5.19434628975265</v>
       </c>
       <c r="AO25">
-        <v>-5.34431137724551</v>
+        <v>-1.581005586592179</v>
       </c>
       <c r="AP25">
-        <v>-1.419178817094396</v>
+        <v>-5.187985865724381</v>
       </c>
       <c r="AQ25">
-        <v>-5.417298937784523</v>
+        <v>-1.581005586592179</v>
       </c>
     </row>
     <row r="26">
@@ -3510,7 +3471,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Vinco Financial Group Limited (SEHK:8340)</t>
+          <t>Greenpro Capital Corp. (NasdaqCM:GRNQ)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3519,25 +3480,25 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.0306</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="G26">
-        <v>0.1446327683615819</v>
+        <v>-0.4234527687296417</v>
       </c>
       <c r="H26">
-        <v>0.1446327683615819</v>
+        <v>-0.4234527687296417</v>
       </c>
       <c r="I26">
-        <v>-0.1001044587749867</v>
+        <v>-0.4972828857808947</v>
       </c>
       <c r="J26">
-        <v>-0.1001044587749867</v>
+        <v>-0.4972828857808947</v>
       </c>
       <c r="K26">
-        <v>-0.492</v>
+        <v>-1.83</v>
       </c>
       <c r="L26">
-        <v>-0.2779661016949153</v>
+        <v>-0.5960912052117264</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -3561,61 +3522,73 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>0.393</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>0.003237232289950577</v>
+      </c>
+      <c r="W26">
+        <v>-0.4932614555256065</v>
       </c>
       <c r="X26">
-        <v>0.056123324180645</v>
+        <v>0.03893843610173936</v>
+      </c>
+      <c r="Y26">
+        <v>-0.5321998916273458</v>
       </c>
       <c r="Z26">
-        <v>3.533466901255886</v>
+        <v>0.6390119106793869</v>
       </c>
       <c r="AA26">
-        <v>-0.35371579174955</v>
+        <v>-0.3177696869910088</v>
       </c>
       <c r="AB26">
-        <v>0.05815657527050617</v>
+        <v>0.03893258406190409</v>
       </c>
       <c r="AC26">
-        <v>-0.4118723670200561</v>
+        <v>-0.3567022710529129</v>
       </c>
       <c r="AD26">
-        <v>0.447</v>
+        <v>1.86</v>
       </c>
       <c r="AE26">
-        <v>0.5009244601586323</v>
+        <v>0.5082922967367327</v>
       </c>
       <c r="AF26">
-        <v>0.9479244601586323</v>
+        <v>2.368292296736733</v>
       </c>
       <c r="AG26">
-        <v>0.9479244601586323</v>
+        <v>1.975292296736733</v>
       </c>
       <c r="AH26">
-        <v>0.1785866523296947</v>
+        <v>0.01913488707639844</v>
       </c>
       <c r="AI26">
-        <v>0.1915802207150595</v>
+        <v>0.2767248669036181</v>
       </c>
       <c r="AJ26">
-        <v>0.1785866523296947</v>
+        <v>0.01601043661145578</v>
       </c>
       <c r="AK26">
-        <v>0.1915802207150595</v>
+        <v>0.2419132377571052</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>0.098</v>
       </c>
       <c r="AN26">
-        <v>-6.38571428571428</v>
+        <v>-1.61038961038961</v>
+      </c>
+      <c r="AO26">
+        <v>-14.04761904761905</v>
       </c>
       <c r="AP26">
-        <v>-13.54177800226616</v>
+        <v>-1.710209780724444</v>
+      </c>
+      <c r="AQ26">
+        <v>-18.06122448979592</v>
       </c>
     </row>
     <row r="27">
@@ -3626,7 +3599,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TKK Symphony Acquisition Corporation (NasdaqCM:TKKS)</t>
+          <t>DT Capital Limited (SEHK:356)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3634,8 +3607,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="G27">
+        <v>0.8096385542168674</v>
+      </c>
+      <c r="H27">
+        <v>0.8096385542168674</v>
+      </c>
+      <c r="I27">
+        <v>1.462650602409638</v>
+      </c>
+      <c r="J27">
+        <v>1.462650602409638</v>
+      </c>
       <c r="K27">
-        <v>4.39</v>
+        <v>-5.91</v>
+      </c>
+      <c r="L27">
+        <v>1.424096385542169</v>
       </c>
       <c r="M27">
         <v>-0</v>
@@ -3644,7 +3632,7 @@
         <v>-0</v>
       </c>
       <c r="O27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>-0</v>
@@ -3653,70 +3641,79 @@
         <v>-0</v>
       </c>
       <c r="R27">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="U27">
-        <v>0.047</v>
+        <v>5.43</v>
       </c>
       <c r="V27">
-        <v>0.0006952662721893491</v>
+        <v>0.3934782608695652</v>
       </c>
       <c r="W27">
-        <v>0.8779999999999999</v>
+        <v>-0.2686363636363636</v>
       </c>
       <c r="X27">
-        <v>0.05077825675989241</v>
+        <v>0.03925568789269309</v>
       </c>
       <c r="Y27">
-        <v>0.8272217432401074</v>
+        <v>-0.3078920515290567</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-0.2517287395365765</v>
       </c>
       <c r="AA27">
-        <v>-0.3747988043228328</v>
+        <v>-0.3681911925269926</v>
       </c>
       <c r="AB27">
-        <v>0.05048311990763927</v>
+        <v>0.0388380899205148</v>
       </c>
       <c r="AC27">
-        <v>-0.4252819242304721</v>
+        <v>-0.4070292824475074</v>
       </c>
       <c r="AD27">
-        <v>0.85</v>
+        <v>0.449</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.85</v>
+        <v>0.449</v>
       </c>
       <c r="AG27">
-        <v>0.8029999999999999</v>
+        <v>-4.981</v>
       </c>
       <c r="AH27">
-        <v>0.01241782322863404</v>
+        <v>0.03151098322689311</v>
       </c>
       <c r="AI27">
-        <v>0.1452991452991453</v>
+        <v>0.02680757060122992</v>
       </c>
       <c r="AJ27">
-        <v>0.01173925120243264</v>
+        <v>-0.5648032656763805</v>
       </c>
       <c r="AK27">
-        <v>0.1383767017060141</v>
+        <v>-0.4400565420973584</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="AM27">
-        <v>-5.96</v>
+        <v>0.029</v>
+      </c>
+      <c r="AN27">
+        <v>-0.0740924092409241</v>
+      </c>
+      <c r="AO27">
+        <v>-209.3103448275862</v>
+      </c>
+      <c r="AP27">
+        <v>0.821947194719472</v>
       </c>
       <c r="AQ27">
-        <v>0.273489932885906</v>
+        <v>-209.3103448275862</v>
       </c>
     </row>
     <row r="28">
@@ -3727,7 +3724,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>New Frontier Health Corporation (NYSE:NFH)</t>
+          <t>China Ding Yi Feng Holdings Limited (SEHK:612)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3735,89 +3732,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="G28">
+        <v>7.810026385224274</v>
+      </c>
+      <c r="H28">
+        <v>7.810026385224274</v>
+      </c>
+      <c r="I28">
+        <v>4.036939313984169</v>
+      </c>
+      <c r="J28">
+        <v>4.036939313984169</v>
+      </c>
       <c r="K28">
-        <v>2.91</v>
+        <v>-19.1</v>
+      </c>
+      <c r="L28">
+        <v>5.03957783641161</v>
       </c>
       <c r="M28">
-        <v>-0</v>
+        <v>0.509</v>
       </c>
       <c r="N28">
-        <v>-0</v>
+        <v>0.001383152173913044</v>
       </c>
       <c r="O28">
-        <v>-0</v>
+        <v>-0.02664921465968586</v>
       </c>
       <c r="P28">
-        <v>-0</v>
+        <v>0.509</v>
       </c>
       <c r="Q28">
-        <v>-0</v>
+        <v>0.001383152173913044</v>
       </c>
       <c r="R28">
-        <v>-0</v>
+        <v>-0.02664921465968586</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
       <c r="U28">
-        <v>1.24</v>
+        <v>32.5</v>
       </c>
       <c r="V28">
-        <v>0.0009530397356083314</v>
+        <v>0.08831521739130435</v>
       </c>
       <c r="W28">
-        <v>0.5820000000000001</v>
+        <v>-0.8801843317972351</v>
       </c>
       <c r="X28">
-        <v>0.05045015326463245</v>
+        <v>0.04077279936926245</v>
       </c>
       <c r="Y28">
-        <v>0.5315498467353676</v>
+        <v>-0.9209571311664976</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-0.1647826086956522</v>
       </c>
       <c r="AA28">
-        <v>-0.4601769911504425</v>
+        <v>-0.6652173913043479</v>
       </c>
       <c r="AB28">
-        <v>0.05045015326463245</v>
+        <v>0.0455781374764164</v>
       </c>
       <c r="AC28">
-        <v>-0.510627144415075</v>
+        <v>-0.7107955287807642</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="AG28">
-        <v>-1.24</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>0.08662199056837926</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>0.2937710437710437</v>
       </c>
       <c r="AJ28">
-        <v>-0.0009539488868031943</v>
+        <v>0.006479481641468679</v>
       </c>
       <c r="AK28">
-        <v>-0.3297872340425532</v>
+        <v>0.02780996523754343</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="AM28">
-        <v>-3.95</v>
+        <v>4.13</v>
+      </c>
+      <c r="AN28">
+        <v>-2.39041095890411</v>
+      </c>
+      <c r="AO28">
+        <v>-3.704600484261502</v>
+      </c>
+      <c r="AP28">
+        <v>-0.1643835616438355</v>
       </c>
       <c r="AQ28">
-        <v>0.2632911392405063</v>
+        <v>-3.704600484261502</v>
       </c>
     </row>
     <row r="29">
@@ -3828,7 +3852,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sheng Yuan Holdings Limited (SEHK:851)</t>
+          <t>Core Economy Investment Group Limited (SEHK:339)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3836,26 +3860,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D29">
-        <v>-0.486</v>
-      </c>
       <c r="G29">
-        <v>-6.374871266735325</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="H29">
-        <v>-6.374871266735325</v>
+        <v>8.235294117647058</v>
       </c>
       <c r="I29">
-        <v>-6.015140120224958</v>
+        <v>9.76470588235294</v>
       </c>
       <c r="J29">
-        <v>-6.015140120224958</v>
+        <v>9.76470588235294</v>
       </c>
       <c r="K29">
-        <v>-10.2</v>
+        <v>-1.68</v>
       </c>
       <c r="L29">
-        <v>-10.50463439752832</v>
+        <v>9.882352941176469</v>
       </c>
       <c r="M29">
         <v>-0</v>
@@ -3879,73 +3900,73 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>6.58</v>
+        <v>0.925</v>
       </c>
       <c r="V29">
-        <v>0.1382352941176471</v>
+        <v>0.187246963562753</v>
       </c>
       <c r="W29">
-        <v>3.968871595330739</v>
+        <v>-0.356687898089172</v>
       </c>
       <c r="X29">
-        <v>0.05720578442238164</v>
+        <v>0.03969081442393645</v>
       </c>
       <c r="Y29">
-        <v>3.911665810908358</v>
+        <v>-0.3963787125131084</v>
       </c>
       <c r="Z29">
-        <v>0.09116082414066257</v>
+        <v>-0.1124338624338624</v>
       </c>
       <c r="AA29">
-        <v>-0.5483451306812712</v>
+        <v>-1.097883597883598</v>
       </c>
       <c r="AB29">
-        <v>0.05267898637953454</v>
+        <v>0.03920148627349911</v>
       </c>
       <c r="AC29">
-        <v>-0.6010241170608057</v>
+        <v>-1.137085084157097</v>
       </c>
       <c r="AD29">
-        <v>11.6</v>
+        <v>0.249</v>
       </c>
       <c r="AE29">
-        <v>0.7235052836921684</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>12.32350528369217</v>
+        <v>0.249</v>
       </c>
       <c r="AG29">
-        <v>5.743505283692167</v>
+        <v>-0.676</v>
       </c>
       <c r="AH29">
-        <v>0.2056539453983834</v>
+        <v>0.04798612449412218</v>
       </c>
       <c r="AI29">
-        <v>1.314716843989233</v>
+        <v>0.06180193596425912</v>
       </c>
       <c r="AJ29">
-        <v>0.1076701887726909</v>
+        <v>-0.1585365853658537</v>
       </c>
       <c r="AK29">
-        <v>2.056020912944541</v>
+        <v>-0.2177835051546392</v>
       </c>
       <c r="AL29">
-        <v>3.77</v>
+        <v>0.019</v>
       </c>
       <c r="AM29">
-        <v>3.77</v>
+        <v>0.019</v>
       </c>
       <c r="AN29">
-        <v>-2.04369274136716</v>
+        <v>-0.1518292682926829</v>
       </c>
       <c r="AO29">
-        <v>-1.710875331564987</v>
+        <v>-87.36842105263158</v>
       </c>
       <c r="AP29">
-        <v>-1.011893108472898</v>
+        <v>0.4121951219512195</v>
       </c>
       <c r="AQ29">
-        <v>-1.710875331564987</v>
+        <v>-87.36842105263158</v>
       </c>
     </row>
     <row r="30">
@@ -3956,7 +3977,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Core Economy Investment Group Limited (SEHK:339)</t>
+          <t>Ping An Securities Group (Holdings) Limited (SEHK:231)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3964,26 +3985,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D30">
-        <v>-0.542</v>
-      </c>
       <c r="G30">
-        <v>-21.30434782608695</v>
+        <v>109.0740740740741</v>
       </c>
       <c r="H30">
-        <v>-21.30434782608695</v>
+        <v>109.0740740740741</v>
       </c>
       <c r="I30">
-        <v>-16.65111201070974</v>
+        <v>101.6666666666667</v>
       </c>
       <c r="J30">
-        <v>-16.65111201070974</v>
+        <v>101.6666666666667</v>
       </c>
       <c r="K30">
-        <v>-1.42</v>
+        <v>-118.5</v>
       </c>
       <c r="L30">
-        <v>-20.57971014492754</v>
+        <v>219.4444444444444</v>
       </c>
       <c r="M30">
         <v>-0</v>
@@ -4007,73 +4025,73 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>3.86</v>
+        <v>3.57</v>
       </c>
       <c r="V30">
-        <v>0.2284023668639053</v>
+        <v>0.2063583815028902</v>
       </c>
       <c r="W30">
-        <v>-0.3021276595744681</v>
+        <v>-10.67567567567568</v>
       </c>
       <c r="X30">
-        <v>0.05274554006306691</v>
+        <v>0.1754225597136927</v>
       </c>
       <c r="Y30">
-        <v>-0.354873199637535</v>
+        <v>-10.85109823538937</v>
       </c>
       <c r="Z30">
-        <v>0.04496187105208525</v>
+        <v>-0.01156316916488223</v>
       </c>
       <c r="AA30">
-        <v>-0.748665151099359</v>
+        <v>-1.17558886509636</v>
       </c>
       <c r="AB30">
-        <v>0.05132643193415834</v>
+        <v>0.0959704833653679</v>
       </c>
       <c r="AC30">
-        <v>-0.7999915830335174</v>
+        <v>-1.271559348461728</v>
       </c>
       <c r="AD30">
-        <v>0.662</v>
+        <v>97.3</v>
       </c>
       <c r="AE30">
-        <v>0.8246336436948596</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>1.48663364369486</v>
+        <v>97.3</v>
       </c>
       <c r="AG30">
-        <v>-2.37336635630514</v>
+        <v>93.73</v>
       </c>
       <c r="AH30">
-        <v>0.08085404171875997</v>
+        <v>0.8490401396160558</v>
       </c>
       <c r="AI30">
-        <v>0.2399098815866781</v>
+        <v>-9.928571428571431</v>
       </c>
       <c r="AJ30">
-        <v>-0.1633803408634372</v>
+        <v>0.8441862559668558</v>
       </c>
       <c r="AK30">
-        <v>-1.015720355952847</v>
+        <v>-7.010471204188487</v>
       </c>
       <c r="AL30">
-        <v>0.01</v>
+        <v>17.1</v>
       </c>
       <c r="AM30">
-        <v>0.01</v>
+        <v>17.042</v>
       </c>
       <c r="AN30">
-        <v>-0.6867219917012448</v>
+        <v>-1.867562380038388</v>
       </c>
       <c r="AO30">
-        <v>-141</v>
+        <v>-3.210526315789473</v>
       </c>
       <c r="AP30">
-        <v>2.461998294922345</v>
+        <v>-1.799040307101728</v>
       </c>
       <c r="AQ30">
-        <v>-141</v>
+        <v>-3.221452881117239</v>
       </c>
     </row>
     <row r="31">
@@ -4084,7 +4102,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alberton Acquisition Corporation (NasdaqCM:ALAC)</t>
+          <t>Sheng Yuan Holdings Limited (SEHK:851)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4092,8 +4110,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D31">
+        <v>-0.622</v>
+      </c>
+      <c r="G31">
+        <v>-11.12546125461255</v>
+      </c>
+      <c r="H31">
+        <v>-11.12546125461255</v>
+      </c>
+      <c r="I31">
+        <v>-7.103321033210332</v>
+      </c>
+      <c r="J31">
+        <v>-7.103321033210332</v>
+      </c>
       <c r="K31">
-        <v>2.06</v>
+        <v>-6.55</v>
+      </c>
+      <c r="L31">
+        <v>-12.08487084870849</v>
       </c>
       <c r="M31">
         <v>-0</v>
@@ -4102,7 +4138,7 @@
         <v>-0</v>
       </c>
       <c r="O31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>-0</v>
@@ -4111,70 +4147,79 @@
         <v>-0</v>
       </c>
       <c r="R31">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1.24</v>
+        <v>3.59</v>
       </c>
       <c r="V31">
-        <v>0.02924528301886792</v>
+        <v>0.2699248120300752</v>
       </c>
       <c r="W31">
-        <v>-412</v>
+        <v>2.154605263157895</v>
       </c>
       <c r="X31">
-        <v>0.05134251465767853</v>
+        <v>0.06446265095407475</v>
       </c>
       <c r="Y31">
-        <v>-412.0513425146577</v>
+        <v>2.09014261220382</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>0.5000000000000007</v>
       </c>
       <c r="AA31">
-        <v>-1.319391634980988</v>
+        <v>-3.55166051660517</v>
       </c>
       <c r="AB31">
-        <v>0.05053793974890461</v>
+        <v>0.04460360459927995</v>
       </c>
       <c r="AC31">
-        <v>-1.369929574729893</v>
+        <v>-3.59626412120445</v>
       </c>
       <c r="AD31">
-        <v>1.45</v>
+        <v>14.2</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.45</v>
+        <v>14.2</v>
       </c>
       <c r="AG31">
-        <v>0.21</v>
+        <v>10.61</v>
       </c>
       <c r="AH31">
-        <v>0.0330672748004561</v>
+        <v>0.5163636363636364</v>
       </c>
       <c r="AI31">
-        <v>0.2248062015503876</v>
+        <v>3.06695464362851</v>
       </c>
       <c r="AJ31">
-        <v>0.004928420558554329</v>
+        <v>0.4437473860309494</v>
       </c>
       <c r="AK31">
-        <v>0.04030710172744721</v>
+        <v>10.20192307692309</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AM31">
-        <v>-2.53</v>
+        <v>1.82</v>
+      </c>
+      <c r="AN31">
+        <v>-3.776595744680851</v>
+      </c>
+      <c r="AO31">
+        <v>-2.115384615384615</v>
+      </c>
+      <c r="AP31">
+        <v>-2.821808510638298</v>
       </c>
       <c r="AQ31">
-        <v>0.1371541501976285</v>
+        <v>-2.115384615384615</v>
       </c>
     </row>
     <row r="32">
@@ -4185,7 +4230,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Eagle Ride Investment Holdings Limited (SEHK:901)</t>
+          <t>Vinco Financial Group Limited (SEHK:8340)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4193,23 +4238,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D32">
+        <v>-0.134</v>
+      </c>
       <c r="G32">
-        <v>40.76923076923077</v>
+        <v>-0.7008695652173914</v>
       </c>
       <c r="H32">
-        <v>40.76923076923077</v>
+        <v>-0.7008695652173914</v>
       </c>
       <c r="I32">
-        <v>34.85416157293379</v>
+        <v>-0.6069565217391304</v>
       </c>
       <c r="J32">
-        <v>34.85416157293379</v>
+        <v>-0.6069565217391304</v>
       </c>
       <c r="K32">
-        <v>-6.41</v>
+        <v>-0.713</v>
       </c>
       <c r="L32">
-        <v>44.82517482517483</v>
+        <v>-0.62</v>
       </c>
       <c r="M32">
         <v>-0</v>
@@ -4233,73 +4281,58 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0.389</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>0.03241666666666667</v>
-      </c>
-      <c r="W32">
-        <v>2.074433656957929</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>0.09375669590155153</v>
-      </c>
-      <c r="Y32">
-        <v>1.980676961056377</v>
-      </c>
-      <c r="Z32">
-        <v>-0.03830980849134314</v>
-      </c>
-      <c r="AA32">
-        <v>-1.335256254985425</v>
+        <v>0.03864360626075882</v>
       </c>
       <c r="AB32">
-        <v>0.06174615612653223</v>
-      </c>
-      <c r="AC32">
-        <v>-1.397002411111957</v>
+        <v>0.03896097733917463</v>
       </c>
       <c r="AD32">
-        <v>19.7</v>
+        <v>0.168</v>
       </c>
       <c r="AE32">
-        <v>0.2157255246476543</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>19.91572552464766</v>
+        <v>0.168</v>
       </c>
       <c r="AG32">
-        <v>19.52672552464766</v>
+        <v>0.168</v>
       </c>
       <c r="AH32">
-        <v>0.6240098007255789</v>
+        <v>0.007346510407556412</v>
       </c>
       <c r="AI32">
-        <v>1.913919935469566</v>
+        <v>0.04377279833246483</v>
       </c>
       <c r="AJ32">
-        <v>0.6193705562406607</v>
+        <v>0.007346510407556412</v>
       </c>
       <c r="AK32">
-        <v>1.949412058521442</v>
+        <v>0.04377279833246483</v>
       </c>
       <c r="AL32">
-        <v>1.24</v>
+        <v>0.015</v>
       </c>
       <c r="AM32">
-        <v>1.24</v>
+        <v>0.015</v>
       </c>
       <c r="AN32">
-        <v>-4.036058184798197</v>
+        <v>-0.2649842271293376</v>
       </c>
       <c r="AO32">
-        <v>-4.153225806451613</v>
+        <v>-46.53333333333333</v>
       </c>
       <c r="AP32">
-        <v>-4.000558394723961</v>
+        <v>-0.2649842271293376</v>
       </c>
       <c r="AQ32">
-        <v>-4.153225806451613</v>
+        <v>-46.53333333333333</v>
       </c>
     </row>
     <row r="33">
@@ -4318,23 +4351,26 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D33">
+        <v>-0.0809</v>
+      </c>
       <c r="G33">
-        <v>-0.5565610859728507</v>
+        <v>-0.2530516431924883</v>
       </c>
       <c r="H33">
-        <v>-0.5565610859728507</v>
+        <v>-0.2530516431924883</v>
       </c>
       <c r="I33">
-        <v>-0.3165003270953096</v>
+        <v>-0.2572769953051643</v>
       </c>
       <c r="J33">
-        <v>-0.3165003270953096</v>
+        <v>-0.2572769953051643</v>
       </c>
       <c r="K33">
-        <v>-6.9</v>
+        <v>-7.23</v>
       </c>
       <c r="L33">
-        <v>-3.122171945701357</v>
+        <v>-3.394366197183099</v>
       </c>
       <c r="M33">
         <v>-0</v>
@@ -4364,61 +4400,52 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0.06576606097014037</v>
-      </c>
-      <c r="Z33">
-        <v>4.72900638199185</v>
-      </c>
-      <c r="AA33">
-        <v>-1.496732066736227</v>
+        <v>0.04503826923461553</v>
       </c>
       <c r="AB33">
-        <v>0.05445863827364944</v>
-      </c>
-      <c r="AC33">
-        <v>-1.551190705009876</v>
+        <v>0.04099144991156214</v>
       </c>
       <c r="AD33">
-        <v>14.5</v>
+        <v>3.24</v>
       </c>
       <c r="AE33">
-        <v>0.4673286144031702</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>14.96732861440317</v>
+        <v>3.24</v>
       </c>
       <c r="AG33">
-        <v>14.96732861440317</v>
+        <v>3.24</v>
       </c>
       <c r="AH33">
-        <v>0.3698620375221898</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="AI33">
-        <v>1.326029313552911</v>
+        <v>0.5827338129496403</v>
       </c>
       <c r="AJ33">
-        <v>0.3698620375221898</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="AK33">
-        <v>1.326029313552911</v>
+        <v>0.5827338129496403</v>
       </c>
       <c r="AL33">
-        <v>0.163</v>
+        <v>1.24</v>
       </c>
       <c r="AM33">
-        <v>0.162</v>
+        <v>1.205</v>
       </c>
       <c r="AN33">
-        <v>-29.23387096774193</v>
+        <v>-5.806451612903226</v>
       </c>
       <c r="AO33">
-        <v>-5.50920245398773</v>
+        <v>-0.4419354838709678</v>
       </c>
       <c r="AP33">
-        <v>-30.1760657548451</v>
+        <v>-5.806451612903226</v>
       </c>
       <c r="AQ33">
-        <v>-5.54320987654321</v>
+        <v>-0.4547717842323651</v>
       </c>
     </row>
     <row r="34">
@@ -4429,7 +4456,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Youth Champ Financial Group Holdings Limited (SEHK:1160)</t>
+          <t>AID Life Science Holdings Limited (SEHK:8088)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4438,25 +4465,25 @@
         </is>
       </c>
       <c r="D34">
-        <v>-0.266</v>
+        <v>-0.429</v>
       </c>
       <c r="G34">
-        <v>-20.68965517241379</v>
+        <v>-6.189830508474576</v>
       </c>
       <c r="H34">
-        <v>-20.68965517241379</v>
+        <v>-6.564971751412429</v>
       </c>
       <c r="I34">
-        <v>-19.39916322922415</v>
+        <v>-7.129943502824858</v>
       </c>
       <c r="J34">
-        <v>-19.39916322922415</v>
+        <v>-7.129943502824858</v>
       </c>
       <c r="K34">
-        <v>-1.13</v>
+        <v>-16.6</v>
       </c>
       <c r="L34">
-        <v>-19.48275862068965</v>
+        <v>-18.75706214689266</v>
       </c>
       <c r="M34">
         <v>-0</v>
@@ -4480,296 +4507,58 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>0.02512437810945273</v>
-      </c>
-      <c r="W34">
-        <v>-0.4574898785425101</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>0.05053113343166195</v>
-      </c>
-      <c r="Y34">
-        <v>-0.508021011974172</v>
-      </c>
-      <c r="Z34">
-        <v>0.2182442101855397</v>
-      </c>
-      <c r="AA34">
-        <v>-4.233755057222387</v>
+        <v>0.3173427840586202</v>
       </c>
       <c r="AB34">
-        <v>0.05048368336377005</v>
-      </c>
-      <c r="AC34">
-        <v>-4.284238740586157</v>
+        <v>0.05260971486191415</v>
       </c>
       <c r="AD34">
-        <v>0.119</v>
+        <v>27.6</v>
       </c>
       <c r="AE34">
-        <v>0.005757336475003993</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>0.124757336475004</v>
+        <v>27.6</v>
       </c>
       <c r="AG34">
-        <v>-0.885242663524996</v>
+        <v>27.6</v>
       </c>
       <c r="AH34">
-        <v>0.003093814934433767</v>
+        <v>0.9196934355214929</v>
       </c>
       <c r="AI34">
-        <v>0.08517269951023929</v>
+        <v>0.4517184942716858</v>
       </c>
       <c r="AJ34">
-        <v>-0.02251680344733288</v>
+        <v>0.9196934355214929</v>
       </c>
       <c r="AK34">
-        <v>-1.946626458820536</v>
+        <v>0.4517184942716858</v>
       </c>
       <c r="AL34">
-        <v>0.003</v>
+        <v>1.76</v>
       </c>
       <c r="AM34">
-        <v>0.003</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="AN34">
-        <v>-0.1058718861209964</v>
+        <v>-5.18796992481203</v>
       </c>
       <c r="AO34">
-        <v>-376.6666666666666</v>
+        <v>-3.585227272727272</v>
       </c>
       <c r="AP34">
-        <v>0.7875824408585375</v>
+        <v>-5.18796992481203</v>
       </c>
       <c r="AQ34">
-        <v>-376.6666666666666</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Wealthbridge Acquisition Limited (NasdaqCM:HHHH)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="K35">
-        <v>0.217</v>
-      </c>
-      <c r="M35">
-        <v>-0</v>
-      </c>
-      <c r="N35">
-        <v>-0</v>
-      </c>
-      <c r="O35">
-        <v>-0</v>
-      </c>
-      <c r="P35">
-        <v>-0</v>
-      </c>
-      <c r="Q35">
-        <v>-0</v>
-      </c>
-      <c r="R35">
-        <v>-0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0.169</v>
-      </c>
-      <c r="V35">
-        <v>0.006869918699186992</v>
-      </c>
-      <c r="W35">
-        <v>-13.5625</v>
-      </c>
-      <c r="X35">
-        <v>0.05094445192873005</v>
-      </c>
-      <c r="Y35">
-        <v>-13.61344445192873</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>-4.483333333333335</v>
-      </c>
-      <c r="AB35">
-        <v>0.05065163764650611</v>
-      </c>
-      <c r="AC35">
-        <v>-4.533984970979842</v>
-      </c>
-      <c r="AD35">
-        <v>0.466</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0.466</v>
-      </c>
-      <c r="AG35">
-        <v>0.297</v>
-      </c>
-      <c r="AH35">
-        <v>0.01859091997127583</v>
-      </c>
-      <c r="AI35">
-        <v>0.08525429930479327</v>
-      </c>
-      <c r="AJ35">
-        <v>0.01192914809013134</v>
-      </c>
-      <c r="AK35">
-        <v>0.05606947328676611</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>-0.838</v>
-      </c>
-      <c r="AQ35">
-        <v>0.6420047732696899</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>AID Life Science Holdings Limited (SEHK:8088)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>-0.08210000000000001</v>
-      </c>
-      <c r="G36">
-        <v>-6.869198312236287</v>
-      </c>
-      <c r="H36">
-        <v>-7.468354430379746</v>
-      </c>
-      <c r="I36">
-        <v>-6.822522663620159</v>
-      </c>
-      <c r="J36">
-        <v>-6.822522663620159</v>
-      </c>
-      <c r="K36">
-        <v>-96</v>
-      </c>
-      <c r="L36">
-        <v>-40.50632911392405</v>
-      </c>
-      <c r="M36">
-        <v>-0</v>
-      </c>
-      <c r="N36">
-        <v>-0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>-0</v>
-      </c>
-      <c r="Q36">
-        <v>-0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0.196825591345204</v>
-      </c>
-      <c r="Z36">
-        <v>1.256032690631929</v>
-      </c>
-      <c r="AA36">
-        <v>-8.569311498084147</v>
-      </c>
-      <c r="AB36">
-        <v>0.08707367954247648</v>
-      </c>
-      <c r="AC36">
-        <v>-8.656385177626623</v>
-      </c>
-      <c r="AD36">
-        <v>25.6</v>
-      </c>
-      <c r="AE36">
-        <v>1.886893563898896</v>
-      </c>
-      <c r="AF36">
-        <v>27.4868935638989</v>
-      </c>
-      <c r="AG36">
-        <v>27.4868935638989</v>
-      </c>
-      <c r="AH36">
-        <v>0.8487042299894442</v>
-      </c>
-      <c r="AI36">
-        <v>0.3735297446688758</v>
-      </c>
-      <c r="AJ36">
-        <v>0.8487042299894442</v>
-      </c>
-      <c r="AK36">
-        <v>0.3735297446688758</v>
-      </c>
-      <c r="AL36">
-        <v>2.02</v>
-      </c>
-      <c r="AM36">
-        <v>1.688</v>
-      </c>
-      <c r="AN36">
-        <v>-1.970443349753695</v>
-      </c>
-      <c r="AO36">
-        <v>-8.118811881188119</v>
-      </c>
-      <c r="AP36">
-        <v>-2.115678383920789</v>
-      </c>
-      <c r="AQ36">
-        <v>-9.71563981042654</v>
+        <v>-9.279411764705882</v>
       </c>
     </row>
   </sheetData>
